--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\NBA Projections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EA3426-8AF9-4CA1-835C-0FD015AA855F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC28DFF-AB34-4EF4-BC1B-4E29F96C6380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3861" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="74">
   <si>
     <t>Attend.</t>
   </si>
@@ -589,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I643"/>
+  <dimension ref="A1:I648"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A612" workbookViewId="0">
-      <selection activeCell="G642" sqref="G642"/>
+    <sheetView tabSelected="1" topLeftCell="A616" workbookViewId="0">
+      <selection activeCell="A648" sqref="A648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19254,6 +19254,151 @@
         <v>17</v>
       </c>
     </row>
+    <row r="644" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A644" t="s">
+        <v>3</v>
+      </c>
+      <c r="B644" s="3">
+        <v>144</v>
+      </c>
+      <c r="C644" t="s">
+        <v>15</v>
+      </c>
+      <c r="D644" s="3">
+        <v>109</v>
+      </c>
+      <c r="E644" t="s">
+        <v>67</v>
+      </c>
+      <c r="F644">
+        <v>17832</v>
+      </c>
+      <c r="G644" t="s">
+        <v>16</v>
+      </c>
+      <c r="H644" t="s">
+        <v>3</v>
+      </c>
+      <c r="I644" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="645" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A645" t="s">
+        <v>12</v>
+      </c>
+      <c r="B645" s="3">
+        <v>108</v>
+      </c>
+      <c r="C645" t="s">
+        <v>27</v>
+      </c>
+      <c r="D645" s="3">
+        <v>103</v>
+      </c>
+      <c r="E645" t="s">
+        <v>67</v>
+      </c>
+      <c r="F645">
+        <v>17832</v>
+      </c>
+      <c r="G645" t="s">
+        <v>28</v>
+      </c>
+      <c r="H645" t="s">
+        <v>12</v>
+      </c>
+      <c r="I645" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="646" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A646" t="s">
+        <v>36</v>
+      </c>
+      <c r="B646" s="3">
+        <v>124</v>
+      </c>
+      <c r="C646" t="s">
+        <v>29</v>
+      </c>
+      <c r="D646" s="3">
+        <v>153</v>
+      </c>
+      <c r="E646" t="s">
+        <v>67</v>
+      </c>
+      <c r="F646">
+        <v>17832</v>
+      </c>
+      <c r="G646" t="s">
+        <v>56</v>
+      </c>
+      <c r="H646" t="s">
+        <v>29</v>
+      </c>
+      <c r="I646" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="647" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A647" t="s">
+        <v>41</v>
+      </c>
+      <c r="B647" s="3">
+        <v>109</v>
+      </c>
+      <c r="C647" t="s">
+        <v>32</v>
+      </c>
+      <c r="D647" s="3">
+        <v>111</v>
+      </c>
+      <c r="E647" t="s">
+        <v>67</v>
+      </c>
+      <c r="F647">
+        <v>17832</v>
+      </c>
+      <c r="G647" t="s">
+        <v>59</v>
+      </c>
+      <c r="H647" t="s">
+        <v>32</v>
+      </c>
+      <c r="I647" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="648" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A648" t="s">
+        <v>2</v>
+      </c>
+      <c r="B648" s="3">
+        <v>116</v>
+      </c>
+      <c r="C648" t="s">
+        <v>42</v>
+      </c>
+      <c r="D648" s="3">
+        <v>127</v>
+      </c>
+      <c r="E648" t="s">
+        <v>67</v>
+      </c>
+      <c r="F648">
+        <v>17832</v>
+      </c>
+      <c r="G648" t="s">
+        <v>43</v>
+      </c>
+      <c r="H648" t="s">
+        <v>42</v>
+      </c>
+      <c r="I648" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC28DFF-AB34-4EF4-BC1B-4E29F96C6380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DD986D-EA80-4270-B10E-599CDDAAAA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3939" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Home Pts</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -589,11 +592,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I648"/>
+  <dimension ref="A1:I656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A616" workbookViewId="0">
-      <selection activeCell="A648" sqref="A648"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -19399,6 +19400,238 @@
         <v>2</v>
       </c>
     </row>
+    <row r="649" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A649" t="s">
+        <v>18</v>
+      </c>
+      <c r="B649" s="3">
+        <v>106</v>
+      </c>
+      <c r="C649" t="s">
+        <v>20</v>
+      </c>
+      <c r="D649" s="3">
+        <v>113</v>
+      </c>
+      <c r="E649" t="s">
+        <v>67</v>
+      </c>
+      <c r="F649">
+        <v>17832</v>
+      </c>
+      <c r="G649" t="s">
+        <v>54</v>
+      </c>
+      <c r="H649" t="s">
+        <v>20</v>
+      </c>
+      <c r="I649" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="650" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A650" t="s">
+        <v>23</v>
+      </c>
+      <c r="B650" s="3">
+        <v>118</v>
+      </c>
+      <c r="C650" t="s">
+        <v>14</v>
+      </c>
+      <c r="D650" s="3">
+        <v>107</v>
+      </c>
+      <c r="E650" t="s">
+        <v>67</v>
+      </c>
+      <c r="F650">
+        <v>17832</v>
+      </c>
+      <c r="G650" t="s">
+        <v>55</v>
+      </c>
+      <c r="H650" t="s">
+        <v>23</v>
+      </c>
+      <c r="I650" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="651" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A651" t="s">
+        <v>30</v>
+      </c>
+      <c r="B651" s="3">
+        <v>105</v>
+      </c>
+      <c r="C651" t="s">
+        <v>21</v>
+      </c>
+      <c r="D651" s="3">
+        <v>96</v>
+      </c>
+      <c r="E651" t="s">
+        <v>67</v>
+      </c>
+      <c r="F651">
+        <v>17832</v>
+      </c>
+      <c r="G651" t="s">
+        <v>22</v>
+      </c>
+      <c r="H651" t="s">
+        <v>30</v>
+      </c>
+      <c r="I651" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="652" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A652" t="s">
+        <v>41</v>
+      </c>
+      <c r="B652" s="3">
+        <v>137</v>
+      </c>
+      <c r="C652" t="s">
+        <v>8</v>
+      </c>
+      <c r="D652" s="3">
+        <v>131</v>
+      </c>
+      <c r="E652" t="s">
+        <v>74</v>
+      </c>
+      <c r="F652">
+        <v>17832</v>
+      </c>
+      <c r="G652" t="s">
+        <v>60</v>
+      </c>
+      <c r="H652" t="s">
+        <v>41</v>
+      </c>
+      <c r="I652" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="653" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A653" t="s">
+        <v>26</v>
+      </c>
+      <c r="B653" s="3">
+        <v>116</v>
+      </c>
+      <c r="C653" t="s">
+        <v>45</v>
+      </c>
+      <c r="D653" s="3">
+        <v>126</v>
+      </c>
+      <c r="E653" t="s">
+        <v>67</v>
+      </c>
+      <c r="F653">
+        <v>17832</v>
+      </c>
+      <c r="G653" t="s">
+        <v>46</v>
+      </c>
+      <c r="H653" t="s">
+        <v>45</v>
+      </c>
+      <c r="I653" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="654" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A654" t="s">
+        <v>5</v>
+      </c>
+      <c r="B654" s="3">
+        <v>132</v>
+      </c>
+      <c r="C654" t="s">
+        <v>38</v>
+      </c>
+      <c r="D654" s="3">
+        <v>109</v>
+      </c>
+      <c r="E654" t="s">
+        <v>67</v>
+      </c>
+      <c r="F654">
+        <v>17832</v>
+      </c>
+      <c r="G654" t="s">
+        <v>51</v>
+      </c>
+      <c r="H654" t="s">
+        <v>5</v>
+      </c>
+      <c r="I654" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="655" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A655" t="s">
+        <v>32</v>
+      </c>
+      <c r="B655" s="3">
+        <v>140</v>
+      </c>
+      <c r="C655" t="s">
+        <v>39</v>
+      </c>
+      <c r="D655" s="3">
+        <v>114</v>
+      </c>
+      <c r="E655" t="s">
+        <v>67</v>
+      </c>
+      <c r="F655">
+        <v>17832</v>
+      </c>
+      <c r="G655" t="s">
+        <v>40</v>
+      </c>
+      <c r="H655" t="s">
+        <v>32</v>
+      </c>
+      <c r="I655" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="656" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A656" t="s">
+        <v>17</v>
+      </c>
+      <c r="B656" s="3">
+        <v>112</v>
+      </c>
+      <c r="C656" t="s">
+        <v>6</v>
+      </c>
+      <c r="D656" s="3">
+        <v>134</v>
+      </c>
+      <c r="E656" t="s">
+        <v>67</v>
+      </c>
+      <c r="F656">
+        <v>17832</v>
+      </c>
+      <c r="G656" t="s">
+        <v>7</v>
+      </c>
+      <c r="H656" t="s">
+        <v>6</v>
+      </c>
+      <c r="I656" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DD986D-EA80-4270-B10E-599CDDAAAA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD53CDF-AF45-4A0B-B2E8-8E9B158C64C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3939" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3981" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I656"/>
+  <dimension ref="A1:I663"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19632,6 +19632,209 @@
         <v>17</v>
       </c>
     </row>
+    <row r="657" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A657" t="s">
+        <v>44</v>
+      </c>
+      <c r="B657" s="3">
+        <v>122</v>
+      </c>
+      <c r="C657" t="s">
+        <v>15</v>
+      </c>
+      <c r="D657" s="3">
+        <v>134</v>
+      </c>
+      <c r="E657" t="s">
+        <v>67</v>
+      </c>
+      <c r="F657">
+        <v>17832</v>
+      </c>
+      <c r="G657" t="s">
+        <v>16</v>
+      </c>
+      <c r="H657" t="s">
+        <v>15</v>
+      </c>
+      <c r="I657" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="658" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A658" t="s">
+        <v>36</v>
+      </c>
+      <c r="B658" s="3">
+        <v>123</v>
+      </c>
+      <c r="C658" t="s">
+        <v>14</v>
+      </c>
+      <c r="D658" s="3">
+        <v>108</v>
+      </c>
+      <c r="E658" t="s">
+        <v>67</v>
+      </c>
+      <c r="F658">
+        <v>17832</v>
+      </c>
+      <c r="G658" t="s">
+        <v>55</v>
+      </c>
+      <c r="H658" t="s">
+        <v>36</v>
+      </c>
+      <c r="I658" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="659" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A659" t="s">
+        <v>23</v>
+      </c>
+      <c r="B659" s="3">
+        <v>96</v>
+      </c>
+      <c r="C659" t="s">
+        <v>27</v>
+      </c>
+      <c r="D659" s="3">
+        <v>94</v>
+      </c>
+      <c r="E659" t="s">
+        <v>67</v>
+      </c>
+      <c r="F659">
+        <v>17832</v>
+      </c>
+      <c r="G659" t="s">
+        <v>28</v>
+      </c>
+      <c r="H659" t="s">
+        <v>23</v>
+      </c>
+      <c r="I659" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="660" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A660" t="s">
+        <v>11</v>
+      </c>
+      <c r="B660" s="3">
+        <v>143</v>
+      </c>
+      <c r="C660" t="s">
+        <v>21</v>
+      </c>
+      <c r="D660" s="3">
+        <v>110</v>
+      </c>
+      <c r="E660" t="s">
+        <v>67</v>
+      </c>
+      <c r="F660">
+        <v>17832</v>
+      </c>
+      <c r="G660" t="s">
+        <v>22</v>
+      </c>
+      <c r="H660" t="s">
+        <v>11</v>
+      </c>
+      <c r="I660" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="661" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A661" t="s">
+        <v>3</v>
+      </c>
+      <c r="B661" s="3">
+        <v>84</v>
+      </c>
+      <c r="C661" t="s">
+        <v>12</v>
+      </c>
+      <c r="D661" s="3">
+        <v>122</v>
+      </c>
+      <c r="E661" t="s">
+        <v>67</v>
+      </c>
+      <c r="F661">
+        <v>17832</v>
+      </c>
+      <c r="G661" t="s">
+        <v>13</v>
+      </c>
+      <c r="H661" t="s">
+        <v>12</v>
+      </c>
+      <c r="I661" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="662" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A662" t="s">
+        <v>35</v>
+      </c>
+      <c r="B662" s="3">
+        <v>134</v>
+      </c>
+      <c r="C662" t="s">
+        <v>6</v>
+      </c>
+      <c r="D662" s="3">
+        <v>133</v>
+      </c>
+      <c r="E662" t="s">
+        <v>67</v>
+      </c>
+      <c r="F662">
+        <v>17832</v>
+      </c>
+      <c r="G662" t="s">
+        <v>7</v>
+      </c>
+      <c r="H662" t="s">
+        <v>35</v>
+      </c>
+      <c r="I662" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="663" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A663" t="s">
+        <v>33</v>
+      </c>
+      <c r="B663" s="3">
+        <v>132</v>
+      </c>
+      <c r="C663" t="s">
+        <v>2</v>
+      </c>
+      <c r="D663" s="3">
+        <v>141</v>
+      </c>
+      <c r="E663" t="s">
+        <v>67</v>
+      </c>
+      <c r="F663">
+        <v>17832</v>
+      </c>
+      <c r="G663" t="s">
+        <v>43</v>
+      </c>
+      <c r="H663" t="s">
+        <v>2</v>
+      </c>
+      <c r="I663" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD53CDF-AF45-4A0B-B2E8-8E9B158C64C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554754A6-2243-4B60-8D79-FA7D7A9DC676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3981" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4029" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I663"/>
+  <dimension ref="A1:I671"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19835,6 +19835,238 @@
         <v>33</v>
       </c>
     </row>
+    <row r="664" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A664" t="s">
+        <v>38</v>
+      </c>
+      <c r="B664" s="3">
+        <v>148</v>
+      </c>
+      <c r="C664" t="s">
+        <v>17</v>
+      </c>
+      <c r="D664" s="3">
+        <v>143</v>
+      </c>
+      <c r="E664" t="s">
+        <v>67</v>
+      </c>
+      <c r="F664">
+        <v>17832</v>
+      </c>
+      <c r="G664" t="s">
+        <v>47</v>
+      </c>
+      <c r="H664" t="s">
+        <v>38</v>
+      </c>
+      <c r="I664" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="665" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A665" t="s">
+        <v>8</v>
+      </c>
+      <c r="B665" s="3">
+        <v>138</v>
+      </c>
+      <c r="C665" t="s">
+        <v>18</v>
+      </c>
+      <c r="D665" s="3">
+        <v>104</v>
+      </c>
+      <c r="E665" t="s">
+        <v>67</v>
+      </c>
+      <c r="F665">
+        <v>17832</v>
+      </c>
+      <c r="G665" t="s">
+        <v>19</v>
+      </c>
+      <c r="H665" t="s">
+        <v>8</v>
+      </c>
+      <c r="I665" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="666" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A666" t="s">
+        <v>5</v>
+      </c>
+      <c r="B666" s="3">
+        <v>131</v>
+      </c>
+      <c r="C666" t="s">
+        <v>15</v>
+      </c>
+      <c r="D666" s="3">
+        <v>133</v>
+      </c>
+      <c r="E666" t="s">
+        <v>67</v>
+      </c>
+      <c r="F666">
+        <v>17832</v>
+      </c>
+      <c r="G666" t="s">
+        <v>16</v>
+      </c>
+      <c r="H666" t="s">
+        <v>15</v>
+      </c>
+      <c r="I666" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="667" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A667" t="s">
+        <v>42</v>
+      </c>
+      <c r="B667" s="3">
+        <v>127</v>
+      </c>
+      <c r="C667" t="s">
+        <v>24</v>
+      </c>
+      <c r="D667" s="3">
+        <v>107</v>
+      </c>
+      <c r="E667" t="s">
+        <v>67</v>
+      </c>
+      <c r="F667">
+        <v>17832</v>
+      </c>
+      <c r="G667" t="s">
+        <v>25</v>
+      </c>
+      <c r="H667" t="s">
+        <v>42</v>
+      </c>
+      <c r="I667" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="668" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A668" t="s">
+        <v>9</v>
+      </c>
+      <c r="B668" s="3">
+        <v>106</v>
+      </c>
+      <c r="C668" t="s">
+        <v>30</v>
+      </c>
+      <c r="D668" s="3">
+        <v>107</v>
+      </c>
+      <c r="E668" t="s">
+        <v>67</v>
+      </c>
+      <c r="F668">
+        <v>17832</v>
+      </c>
+      <c r="G668" t="s">
+        <v>31</v>
+      </c>
+      <c r="H668" t="s">
+        <v>30</v>
+      </c>
+      <c r="I668" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="669" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A669" t="s">
+        <v>26</v>
+      </c>
+      <c r="B669" s="3">
+        <v>112</v>
+      </c>
+      <c r="C669" t="s">
+        <v>45</v>
+      </c>
+      <c r="D669" s="3">
+        <v>100</v>
+      </c>
+      <c r="E669" t="s">
+        <v>67</v>
+      </c>
+      <c r="F669">
+        <v>17832</v>
+      </c>
+      <c r="G669" t="s">
+        <v>46</v>
+      </c>
+      <c r="H669" t="s">
+        <v>26</v>
+      </c>
+      <c r="I669" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="670" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A670" t="s">
+        <v>32</v>
+      </c>
+      <c r="B670" s="3">
+        <v>107</v>
+      </c>
+      <c r="C670" t="s">
+        <v>29</v>
+      </c>
+      <c r="D670" s="3">
+        <v>83</v>
+      </c>
+      <c r="E670" t="s">
+        <v>67</v>
+      </c>
+      <c r="F670">
+        <v>17832</v>
+      </c>
+      <c r="G670" t="s">
+        <v>56</v>
+      </c>
+      <c r="H670" t="s">
+        <v>32</v>
+      </c>
+      <c r="I670" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="671" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A671" t="s">
+        <v>41</v>
+      </c>
+      <c r="B671" s="3">
+        <v>100</v>
+      </c>
+      <c r="C671" t="s">
+        <v>39</v>
+      </c>
+      <c r="D671" s="3">
+        <v>116</v>
+      </c>
+      <c r="E671" t="s">
+        <v>67</v>
+      </c>
+      <c r="F671">
+        <v>17832</v>
+      </c>
+      <c r="G671" t="s">
+        <v>40</v>
+      </c>
+      <c r="H671" t="s">
+        <v>39</v>
+      </c>
+      <c r="I671" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554754A6-2243-4B60-8D79-FA7D7A9DC676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9604D1-FA74-40F4-B49E-B5891D2E521C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4029" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4089" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,9 +592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I671"/>
+  <dimension ref="A1:I681"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A649" workbookViewId="0">
+      <selection activeCell="A681" sqref="A681"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -20067,6 +20069,296 @@
         <v>41</v>
       </c>
     </row>
+    <row r="672" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A672" t="s">
+        <v>14</v>
+      </c>
+      <c r="B672" s="3">
+        <v>118</v>
+      </c>
+      <c r="C672" t="s">
+        <v>20</v>
+      </c>
+      <c r="D672" s="3">
+        <v>104</v>
+      </c>
+      <c r="E672" t="s">
+        <v>67</v>
+      </c>
+      <c r="F672">
+        <v>17832</v>
+      </c>
+      <c r="G672" t="s">
+        <v>54</v>
+      </c>
+      <c r="H672" t="s">
+        <v>14</v>
+      </c>
+      <c r="I672" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="673" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A673" t="s">
+        <v>21</v>
+      </c>
+      <c r="B673" s="3">
+        <v>109</v>
+      </c>
+      <c r="C673" t="s">
+        <v>12</v>
+      </c>
+      <c r="D673" s="3">
+        <v>125</v>
+      </c>
+      <c r="E673" t="s">
+        <v>67</v>
+      </c>
+      <c r="F673">
+        <v>17832</v>
+      </c>
+      <c r="G673" t="s">
+        <v>13</v>
+      </c>
+      <c r="H673" t="s">
+        <v>12</v>
+      </c>
+      <c r="I673" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="674" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A674" t="s">
+        <v>44</v>
+      </c>
+      <c r="B674" s="3">
+        <v>105</v>
+      </c>
+      <c r="C674" t="s">
+        <v>3</v>
+      </c>
+      <c r="D674" s="3">
+        <v>111</v>
+      </c>
+      <c r="E674" t="s">
+        <v>67</v>
+      </c>
+      <c r="F674">
+        <v>17832</v>
+      </c>
+      <c r="G674" t="s">
+        <v>4</v>
+      </c>
+      <c r="H674" t="s">
+        <v>3</v>
+      </c>
+      <c r="I674" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="675" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A675" t="s">
+        <v>8</v>
+      </c>
+      <c r="B675" s="3">
+        <v>104</v>
+      </c>
+      <c r="C675" t="s">
+        <v>27</v>
+      </c>
+      <c r="D675" s="3">
+        <v>106</v>
+      </c>
+      <c r="E675" t="s">
+        <v>67</v>
+      </c>
+      <c r="F675">
+        <v>17832</v>
+      </c>
+      <c r="G675" t="s">
+        <v>28</v>
+      </c>
+      <c r="H675" t="s">
+        <v>27</v>
+      </c>
+      <c r="I675" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="676" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A676" t="s">
+        <v>42</v>
+      </c>
+      <c r="B676" s="3">
+        <v>115</v>
+      </c>
+      <c r="C676" t="s">
+        <v>11</v>
+      </c>
+      <c r="D676" s="3">
+        <v>96</v>
+      </c>
+      <c r="E676" t="s">
+        <v>67</v>
+      </c>
+      <c r="F676">
+        <v>17832</v>
+      </c>
+      <c r="G676" t="s">
+        <v>49</v>
+      </c>
+      <c r="H676" t="s">
+        <v>42</v>
+      </c>
+      <c r="I676" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="677" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A677" t="s">
+        <v>36</v>
+      </c>
+      <c r="B677" s="3">
+        <v>134</v>
+      </c>
+      <c r="C677" t="s">
+        <v>18</v>
+      </c>
+      <c r="D677" s="3">
+        <v>122</v>
+      </c>
+      <c r="E677" t="s">
+        <v>67</v>
+      </c>
+      <c r="F677">
+        <v>17832</v>
+      </c>
+      <c r="G677" t="s">
+        <v>19</v>
+      </c>
+      <c r="H677" t="s">
+        <v>36</v>
+      </c>
+      <c r="I677" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="678" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A678" t="s">
+        <v>29</v>
+      </c>
+      <c r="B678" s="3">
+        <v>117</v>
+      </c>
+      <c r="C678" t="s">
+        <v>45</v>
+      </c>
+      <c r="D678" s="3">
+        <v>141</v>
+      </c>
+      <c r="E678" t="s">
+        <v>67</v>
+      </c>
+      <c r="F678">
+        <v>17832</v>
+      </c>
+      <c r="G678" t="s">
+        <v>46</v>
+      </c>
+      <c r="H678" t="s">
+        <v>45</v>
+      </c>
+      <c r="I678" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="679" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A679" t="s">
+        <v>2</v>
+      </c>
+      <c r="B679" s="3">
+        <v>145</v>
+      </c>
+      <c r="C679" t="s">
+        <v>6</v>
+      </c>
+      <c r="D679" s="3">
+        <v>144</v>
+      </c>
+      <c r="E679" t="s">
+        <v>63</v>
+      </c>
+      <c r="F679">
+        <v>17832</v>
+      </c>
+      <c r="G679" t="s">
+        <v>7</v>
+      </c>
+      <c r="H679" t="s">
+        <v>2</v>
+      </c>
+      <c r="I679" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="680" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A680" t="s">
+        <v>23</v>
+      </c>
+      <c r="B680" s="3">
+        <v>112</v>
+      </c>
+      <c r="C680" t="s">
+        <v>39</v>
+      </c>
+      <c r="D680" s="3">
+        <v>113</v>
+      </c>
+      <c r="E680" t="s">
+        <v>67</v>
+      </c>
+      <c r="F680">
+        <v>17832</v>
+      </c>
+      <c r="G680" t="s">
+        <v>40</v>
+      </c>
+      <c r="H680" t="s">
+        <v>39</v>
+      </c>
+      <c r="I680" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="681" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A681" t="s">
+        <v>35</v>
+      </c>
+      <c r="B681" s="3">
+        <v>120</v>
+      </c>
+      <c r="C681" t="s">
+        <v>38</v>
+      </c>
+      <c r="D681" s="3">
+        <v>115</v>
+      </c>
+      <c r="E681" t="s">
+        <v>67</v>
+      </c>
+      <c r="F681">
+        <v>17832</v>
+      </c>
+      <c r="G681" t="s">
+        <v>51</v>
+      </c>
+      <c r="H681" t="s">
+        <v>35</v>
+      </c>
+      <c r="I681" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9604D1-FA74-40F4-B49E-B5891D2E521C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7C33A1-E699-4E6A-9ADA-FD7F31D0D305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$621</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$686</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4089" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4119" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I681"/>
+  <dimension ref="A1:I686"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A649" workbookViewId="0">
-      <selection activeCell="A681" sqref="A681"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20359,6 +20359,151 @@
         <v>38</v>
       </c>
     </row>
+    <row r="682" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A682" t="s">
+        <v>30</v>
+      </c>
+      <c r="B682" s="3">
+        <v>110</v>
+      </c>
+      <c r="C682" t="s">
+        <v>15</v>
+      </c>
+      <c r="D682" s="3">
+        <v>116</v>
+      </c>
+      <c r="E682" t="s">
+        <v>67</v>
+      </c>
+      <c r="F682">
+        <v>17832</v>
+      </c>
+      <c r="G682" t="s">
+        <v>16</v>
+      </c>
+      <c r="H682" t="s">
+        <v>15</v>
+      </c>
+      <c r="I682" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="683" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A683" t="s">
+        <v>24</v>
+      </c>
+      <c r="B683" s="3">
+        <v>125</v>
+      </c>
+      <c r="C683" t="s">
+        <v>17</v>
+      </c>
+      <c r="D683" s="3">
+        <v>126</v>
+      </c>
+      <c r="E683" t="s">
+        <v>67</v>
+      </c>
+      <c r="F683">
+        <v>17832</v>
+      </c>
+      <c r="G683" t="s">
+        <v>47</v>
+      </c>
+      <c r="H683" t="s">
+        <v>17</v>
+      </c>
+      <c r="I683" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="684" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A684" t="s">
+        <v>32</v>
+      </c>
+      <c r="B684" s="3">
+        <v>104</v>
+      </c>
+      <c r="C684" t="s">
+        <v>20</v>
+      </c>
+      <c r="D684" s="3">
+        <v>120</v>
+      </c>
+      <c r="E684" t="s">
+        <v>67</v>
+      </c>
+      <c r="F684">
+        <v>17832</v>
+      </c>
+      <c r="G684" t="s">
+        <v>54</v>
+      </c>
+      <c r="H684" t="s">
+        <v>20</v>
+      </c>
+      <c r="I684" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="685" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A685" t="s">
+        <v>5</v>
+      </c>
+      <c r="B685" s="3">
+        <v>98</v>
+      </c>
+      <c r="C685" t="s">
+        <v>9</v>
+      </c>
+      <c r="D685" s="3">
+        <v>113</v>
+      </c>
+      <c r="E685" t="s">
+        <v>67</v>
+      </c>
+      <c r="F685">
+        <v>17832</v>
+      </c>
+      <c r="G685" t="s">
+        <v>10</v>
+      </c>
+      <c r="H685" t="s">
+        <v>9</v>
+      </c>
+      <c r="I685" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="686" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A686" t="s">
+        <v>33</v>
+      </c>
+      <c r="B686" s="3">
+        <v>104</v>
+      </c>
+      <c r="C686" t="s">
+        <v>41</v>
+      </c>
+      <c r="D686" s="3">
+        <v>96</v>
+      </c>
+      <c r="E686" t="s">
+        <v>67</v>
+      </c>
+      <c r="F686">
+        <v>17832</v>
+      </c>
+      <c r="G686" t="s">
+        <v>52</v>
+      </c>
+      <c r="H686" t="s">
+        <v>33</v>
+      </c>
+      <c r="I686" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7C33A1-E699-4E6A-9ADA-FD7F31D0D305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D9DD50-0C58-4D69-AB33-FA4520FFF257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4119" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4191" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I686"/>
+  <dimension ref="A1:I698"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A665" workbookViewId="0">
+      <selection activeCell="A687" sqref="A687"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20504,6 +20504,354 @@
         <v>41</v>
       </c>
     </row>
+    <row r="687" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A687" t="s">
+        <v>12</v>
+      </c>
+      <c r="B687" s="3">
+        <v>113</v>
+      </c>
+      <c r="C687" t="s">
+        <v>18</v>
+      </c>
+      <c r="D687" s="3">
+        <v>92</v>
+      </c>
+      <c r="E687" t="s">
+        <v>67</v>
+      </c>
+      <c r="F687">
+        <v>17832</v>
+      </c>
+      <c r="G687" t="s">
+        <v>19</v>
+      </c>
+      <c r="H687" t="s">
+        <v>12</v>
+      </c>
+      <c r="I687" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="688" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A688" t="s">
+        <v>42</v>
+      </c>
+      <c r="B688" s="3">
+        <v>108</v>
+      </c>
+      <c r="C688" t="s">
+        <v>26</v>
+      </c>
+      <c r="D688" s="3">
+        <v>118</v>
+      </c>
+      <c r="E688" t="s">
+        <v>67</v>
+      </c>
+      <c r="F688">
+        <v>17832</v>
+      </c>
+      <c r="G688" t="s">
+        <v>48</v>
+      </c>
+      <c r="H688" t="s">
+        <v>26</v>
+      </c>
+      <c r="I688" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="689" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A689" t="s">
+        <v>29</v>
+      </c>
+      <c r="B689" s="3">
+        <v>112</v>
+      </c>
+      <c r="C689" t="s">
+        <v>11</v>
+      </c>
+      <c r="D689" s="3">
+        <v>118</v>
+      </c>
+      <c r="E689" t="s">
+        <v>67</v>
+      </c>
+      <c r="F689">
+        <v>17832</v>
+      </c>
+      <c r="G689" t="s">
+        <v>49</v>
+      </c>
+      <c r="H689" t="s">
+        <v>11</v>
+      </c>
+      <c r="I689" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="690" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A690" t="s">
+        <v>36</v>
+      </c>
+      <c r="B690" s="3">
+        <v>114</v>
+      </c>
+      <c r="C690" t="s">
+        <v>27</v>
+      </c>
+      <c r="D690" s="3">
+        <v>147</v>
+      </c>
+      <c r="E690" t="s">
+        <v>67</v>
+      </c>
+      <c r="F690">
+        <v>17832</v>
+      </c>
+      <c r="G690" t="s">
+        <v>28</v>
+      </c>
+      <c r="H690" t="s">
+        <v>27</v>
+      </c>
+      <c r="I690" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="691" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A691" t="s">
+        <v>5</v>
+      </c>
+      <c r="B691" s="3">
+        <v>118</v>
+      </c>
+      <c r="C691" t="s">
+        <v>21</v>
+      </c>
+      <c r="D691" s="3">
+        <v>105</v>
+      </c>
+      <c r="E691" t="s">
+        <v>67</v>
+      </c>
+      <c r="F691">
+        <v>17832</v>
+      </c>
+      <c r="G691" t="s">
+        <v>22</v>
+      </c>
+      <c r="H691" t="s">
+        <v>5</v>
+      </c>
+      <c r="I691" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="692" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A692" t="s">
+        <v>2</v>
+      </c>
+      <c r="B692" s="3">
+        <v>119</v>
+      </c>
+      <c r="C692" t="s">
+        <v>8</v>
+      </c>
+      <c r="D692" s="3">
+        <v>135</v>
+      </c>
+      <c r="E692" t="s">
+        <v>67</v>
+      </c>
+      <c r="F692">
+        <v>17832</v>
+      </c>
+      <c r="G692" t="s">
+        <v>60</v>
+      </c>
+      <c r="H692" t="s">
+        <v>8</v>
+      </c>
+      <c r="I692" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="693" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A693" t="s">
+        <v>35</v>
+      </c>
+      <c r="B693" s="3">
+        <v>103</v>
+      </c>
+      <c r="C693" t="s">
+        <v>30</v>
+      </c>
+      <c r="D693" s="3">
+        <v>94</v>
+      </c>
+      <c r="E693" t="s">
+        <v>67</v>
+      </c>
+      <c r="F693">
+        <v>17832</v>
+      </c>
+      <c r="G693" t="s">
+        <v>31</v>
+      </c>
+      <c r="H693" t="s">
+        <v>35</v>
+      </c>
+      <c r="I693" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="694" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A694" t="s">
+        <v>23</v>
+      </c>
+      <c r="B694" s="3">
+        <v>107</v>
+      </c>
+      <c r="C694" t="s">
+        <v>32</v>
+      </c>
+      <c r="D694" s="3">
+        <v>101</v>
+      </c>
+      <c r="E694" t="s">
+        <v>67</v>
+      </c>
+      <c r="F694">
+        <v>17832</v>
+      </c>
+      <c r="G694" t="s">
+        <v>59</v>
+      </c>
+      <c r="H694" t="s">
+        <v>23</v>
+      </c>
+      <c r="I694" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="695" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A695" t="s">
+        <v>14</v>
+      </c>
+      <c r="B695" s="3">
+        <v>118</v>
+      </c>
+      <c r="C695" t="s">
+        <v>39</v>
+      </c>
+      <c r="D695" s="3">
+        <v>113</v>
+      </c>
+      <c r="E695" t="s">
+        <v>67</v>
+      </c>
+      <c r="F695">
+        <v>17832</v>
+      </c>
+      <c r="G695" t="s">
+        <v>40</v>
+      </c>
+      <c r="H695" t="s">
+        <v>14</v>
+      </c>
+      <c r="I695" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="696" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A696" t="s">
+        <v>9</v>
+      </c>
+      <c r="B696" s="3">
+        <v>129</v>
+      </c>
+      <c r="C696" t="s">
+        <v>38</v>
+      </c>
+      <c r="D696" s="3">
+        <v>131</v>
+      </c>
+      <c r="E696" t="s">
+        <v>67</v>
+      </c>
+      <c r="F696">
+        <v>17832</v>
+      </c>
+      <c r="G696" t="s">
+        <v>51</v>
+      </c>
+      <c r="H696" t="s">
+        <v>38</v>
+      </c>
+      <c r="I696" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="697" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A697" t="s">
+        <v>45</v>
+      </c>
+      <c r="B697" s="3">
+        <v>107</v>
+      </c>
+      <c r="C697" t="s">
+        <v>3</v>
+      </c>
+      <c r="D697" s="3">
+        <v>113</v>
+      </c>
+      <c r="E697" t="s">
+        <v>67</v>
+      </c>
+      <c r="F697">
+        <v>17832</v>
+      </c>
+      <c r="G697" t="s">
+        <v>4</v>
+      </c>
+      <c r="H697" t="s">
+        <v>3</v>
+      </c>
+      <c r="I697" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="698" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A698" t="s">
+        <v>44</v>
+      </c>
+      <c r="B698" s="3">
+        <v>104</v>
+      </c>
+      <c r="C698" t="s">
+        <v>41</v>
+      </c>
+      <c r="D698" s="3">
+        <v>130</v>
+      </c>
+      <c r="E698" t="s">
+        <v>67</v>
+      </c>
+      <c r="F698">
+        <v>17832</v>
+      </c>
+      <c r="G698" t="s">
+        <v>52</v>
+      </c>
+      <c r="H698" t="s">
+        <v>41</v>
+      </c>
+      <c r="I698" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D9DD50-0C58-4D69-AB33-FA4520FFF257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7764356A-1D91-4CB6-B214-C2EA26A738EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4191" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4221" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I698"/>
+  <dimension ref="A1:I703"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A665" workbookViewId="0">
-      <selection activeCell="A687" sqref="A687"/>
+    <sheetView tabSelected="1" topLeftCell="A670" workbookViewId="0">
+      <selection activeCell="H703" sqref="H703"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20852,6 +20852,151 @@
         <v>44</v>
       </c>
     </row>
+    <row r="699" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A699" t="s">
+        <v>2</v>
+      </c>
+      <c r="B699" s="3">
+        <v>122</v>
+      </c>
+      <c r="C699" t="s">
+        <v>17</v>
+      </c>
+      <c r="D699" s="3">
+        <v>138</v>
+      </c>
+      <c r="E699" t="s">
+        <v>67</v>
+      </c>
+      <c r="F699">
+        <v>17832</v>
+      </c>
+      <c r="G699" t="s">
+        <v>47</v>
+      </c>
+      <c r="H699" t="s">
+        <v>17</v>
+      </c>
+      <c r="I699" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="700" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A700" t="s">
+        <v>15</v>
+      </c>
+      <c r="B700" s="3">
+        <v>124</v>
+      </c>
+      <c r="C700" t="s">
+        <v>11</v>
+      </c>
+      <c r="D700" s="3">
+        <v>129</v>
+      </c>
+      <c r="E700" t="s">
+        <v>67</v>
+      </c>
+      <c r="F700">
+        <v>17832</v>
+      </c>
+      <c r="G700" t="s">
+        <v>49</v>
+      </c>
+      <c r="H700" t="s">
+        <v>11</v>
+      </c>
+      <c r="I700" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="701" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A701" t="s">
+        <v>36</v>
+      </c>
+      <c r="B701" s="3">
+        <v>103</v>
+      </c>
+      <c r="C701" t="s">
+        <v>12</v>
+      </c>
+      <c r="D701" s="3">
+        <v>118</v>
+      </c>
+      <c r="E701" t="s">
+        <v>67</v>
+      </c>
+      <c r="F701">
+        <v>17832</v>
+      </c>
+      <c r="G701" t="s">
+        <v>13</v>
+      </c>
+      <c r="H701" t="s">
+        <v>12</v>
+      </c>
+      <c r="I701" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="702" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A702" t="s">
+        <v>24</v>
+      </c>
+      <c r="B702" s="3">
+        <v>118</v>
+      </c>
+      <c r="C702" t="s">
+        <v>33</v>
+      </c>
+      <c r="D702" s="3">
+        <v>107</v>
+      </c>
+      <c r="E702" t="s">
+        <v>67</v>
+      </c>
+      <c r="F702">
+        <v>17832</v>
+      </c>
+      <c r="G702" t="s">
+        <v>34</v>
+      </c>
+      <c r="H702" t="s">
+        <v>24</v>
+      </c>
+      <c r="I702" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="703" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A703" t="s">
+        <v>44</v>
+      </c>
+      <c r="B703" s="3">
+        <v>107</v>
+      </c>
+      <c r="C703" t="s">
+        <v>6</v>
+      </c>
+      <c r="D703" s="3">
+        <v>119</v>
+      </c>
+      <c r="E703" t="s">
+        <v>67</v>
+      </c>
+      <c r="F703">
+        <v>17832</v>
+      </c>
+      <c r="G703" t="s">
+        <v>7</v>
+      </c>
+      <c r="H703" t="s">
+        <v>6</v>
+      </c>
+      <c r="I703" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7764356A-1D91-4CB6-B214-C2EA26A738EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0118CB10-9349-4745-A605-BDBB942C881C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4221" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4281" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I703"/>
+  <dimension ref="A1:I713"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A670" workbookViewId="0">
-      <selection activeCell="H703" sqref="H703"/>
+    <sheetView tabSelected="1" topLeftCell="A687" workbookViewId="0">
+      <selection activeCell="E712" sqref="E712"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20997,6 +20997,296 @@
         <v>44</v>
       </c>
     </row>
+    <row r="704" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A704" t="s">
+        <v>33</v>
+      </c>
+      <c r="B704" s="3">
+        <v>117</v>
+      </c>
+      <c r="C704" t="s">
+        <v>18</v>
+      </c>
+      <c r="D704" s="3">
+        <v>110</v>
+      </c>
+      <c r="E704" t="s">
+        <v>67</v>
+      </c>
+      <c r="F704">
+        <v>17832</v>
+      </c>
+      <c r="G704" t="s">
+        <v>19</v>
+      </c>
+      <c r="H704" t="s">
+        <v>33</v>
+      </c>
+      <c r="I704" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="705" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A705" t="s">
+        <v>20</v>
+      </c>
+      <c r="B705" s="3">
+        <v>121</v>
+      </c>
+      <c r="C705" t="s">
+        <v>26</v>
+      </c>
+      <c r="D705" s="3">
+        <v>128</v>
+      </c>
+      <c r="E705" t="s">
+        <v>67</v>
+      </c>
+      <c r="F705">
+        <v>17832</v>
+      </c>
+      <c r="G705" t="s">
+        <v>48</v>
+      </c>
+      <c r="H705" t="s">
+        <v>26</v>
+      </c>
+      <c r="I705" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="706" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A706" t="s">
+        <v>42</v>
+      </c>
+      <c r="B706" s="3">
+        <v>125</v>
+      </c>
+      <c r="C706" t="s">
+        <v>14</v>
+      </c>
+      <c r="D706" s="3">
+        <v>109</v>
+      </c>
+      <c r="E706" t="s">
+        <v>67</v>
+      </c>
+      <c r="F706">
+        <v>17832</v>
+      </c>
+      <c r="G706" t="s">
+        <v>55</v>
+      </c>
+      <c r="H706" t="s">
+        <v>42</v>
+      </c>
+      <c r="I706" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="707" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A707" t="s">
+        <v>35</v>
+      </c>
+      <c r="B707" s="3">
+        <v>106</v>
+      </c>
+      <c r="C707" t="s">
+        <v>21</v>
+      </c>
+      <c r="D707" s="3">
+        <v>115</v>
+      </c>
+      <c r="E707" t="s">
+        <v>67</v>
+      </c>
+      <c r="F707">
+        <v>17832</v>
+      </c>
+      <c r="G707" t="s">
+        <v>22</v>
+      </c>
+      <c r="H707" t="s">
+        <v>21</v>
+      </c>
+      <c r="I707" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="708" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A708" t="s">
+        <v>29</v>
+      </c>
+      <c r="B708" s="3">
+        <v>110</v>
+      </c>
+      <c r="C708" t="s">
+        <v>8</v>
+      </c>
+      <c r="D708" s="3">
+        <v>99</v>
+      </c>
+      <c r="E708" t="s">
+        <v>67</v>
+      </c>
+      <c r="F708">
+        <v>17832</v>
+      </c>
+      <c r="G708" t="s">
+        <v>60</v>
+      </c>
+      <c r="H708" t="s">
+        <v>29</v>
+      </c>
+      <c r="I708" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="709" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A709" t="s">
+        <v>38</v>
+      </c>
+      <c r="B709" s="3">
+        <v>87</v>
+      </c>
+      <c r="C709" t="s">
+        <v>23</v>
+      </c>
+      <c r="D709" s="3">
+        <v>121</v>
+      </c>
+      <c r="E709" t="s">
+        <v>67</v>
+      </c>
+      <c r="F709">
+        <v>17832</v>
+      </c>
+      <c r="G709" t="s">
+        <v>57</v>
+      </c>
+      <c r="H709" t="s">
+        <v>23</v>
+      </c>
+      <c r="I709" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="710" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A710" t="s">
+        <v>3</v>
+      </c>
+      <c r="B710" s="3">
+        <v>100</v>
+      </c>
+      <c r="C710" t="s">
+        <v>32</v>
+      </c>
+      <c r="D710" s="3">
+        <v>105</v>
+      </c>
+      <c r="E710" t="s">
+        <v>67</v>
+      </c>
+      <c r="F710">
+        <v>17832</v>
+      </c>
+      <c r="G710" t="s">
+        <v>59</v>
+      </c>
+      <c r="H710" t="s">
+        <v>32</v>
+      </c>
+      <c r="I710" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="711" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A711" t="s">
+        <v>9</v>
+      </c>
+      <c r="B711" s="3">
+        <v>108</v>
+      </c>
+      <c r="C711" t="s">
+        <v>39</v>
+      </c>
+      <c r="D711" s="3">
+        <v>98</v>
+      </c>
+      <c r="E711" t="s">
+        <v>67</v>
+      </c>
+      <c r="F711">
+        <v>17832</v>
+      </c>
+      <c r="G711" t="s">
+        <v>40</v>
+      </c>
+      <c r="H711" t="s">
+        <v>9</v>
+      </c>
+      <c r="I711" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="712" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A712" t="s">
+        <v>5</v>
+      </c>
+      <c r="B712" s="3">
+        <v>136</v>
+      </c>
+      <c r="C712" t="s">
+        <v>27</v>
+      </c>
+      <c r="D712" s="3">
+        <v>120</v>
+      </c>
+      <c r="E712" t="s">
+        <v>67</v>
+      </c>
+      <c r="F712">
+        <v>17832</v>
+      </c>
+      <c r="G712" t="s">
+        <v>28</v>
+      </c>
+      <c r="H712" t="s">
+        <v>5</v>
+      </c>
+      <c r="I712" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="713" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A713" t="s">
+        <v>45</v>
+      </c>
+      <c r="B713" s="3">
+        <v>116</v>
+      </c>
+      <c r="C713" t="s">
+        <v>41</v>
+      </c>
+      <c r="D713" s="3">
+        <v>119</v>
+      </c>
+      <c r="E713" t="s">
+        <v>67</v>
+      </c>
+      <c r="F713">
+        <v>17832</v>
+      </c>
+      <c r="G713" t="s">
+        <v>52</v>
+      </c>
+      <c r="H713" t="s">
+        <v>41</v>
+      </c>
+      <c r="I713" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0118CB10-9349-4745-A605-BDBB942C881C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9863FE-62CB-49CF-B2CA-D6EEC5378939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4281" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4305" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I713"/>
+  <dimension ref="A1:I717"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A687" workbookViewId="0">
-      <selection activeCell="E712" sqref="E712"/>
+    <sheetView tabSelected="1" topLeftCell="A684" workbookViewId="0">
+      <selection activeCell="G714" sqref="G714"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -21287,6 +21287,122 @@
         <v>45</v>
       </c>
     </row>
+    <row r="714" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A714" t="s">
+        <v>2</v>
+      </c>
+      <c r="B714" s="3">
+        <v>114</v>
+      </c>
+      <c r="C714" t="s">
+        <v>11</v>
+      </c>
+      <c r="D714" s="3">
+        <v>105</v>
+      </c>
+      <c r="E714" t="s">
+        <v>67</v>
+      </c>
+      <c r="F714">
+        <v>17832</v>
+      </c>
+      <c r="G714" t="s">
+        <v>49</v>
+      </c>
+      <c r="H714" t="s">
+        <v>2</v>
+      </c>
+      <c r="I714" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="715" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A715" t="s">
+        <v>15</v>
+      </c>
+      <c r="B715" s="3">
+        <v>105</v>
+      </c>
+      <c r="C715" t="s">
+        <v>12</v>
+      </c>
+      <c r="D715" s="3">
+        <v>109</v>
+      </c>
+      <c r="E715" t="s">
+        <v>67</v>
+      </c>
+      <c r="F715">
+        <v>17832</v>
+      </c>
+      <c r="G715" t="s">
+        <v>13</v>
+      </c>
+      <c r="H715" t="s">
+        <v>12</v>
+      </c>
+      <c r="I715" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="716" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A716" t="s">
+        <v>26</v>
+      </c>
+      <c r="B716" s="3">
+        <v>108</v>
+      </c>
+      <c r="C716" t="s">
+        <v>30</v>
+      </c>
+      <c r="D716" s="3">
+        <v>101</v>
+      </c>
+      <c r="E716" t="s">
+        <v>67</v>
+      </c>
+      <c r="F716">
+        <v>17832</v>
+      </c>
+      <c r="G716" t="s">
+        <v>31</v>
+      </c>
+      <c r="H716" t="s">
+        <v>26</v>
+      </c>
+      <c r="I716" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="717" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A717" t="s">
+        <v>44</v>
+      </c>
+      <c r="B717" s="3">
+        <v>127</v>
+      </c>
+      <c r="C717" t="s">
+        <v>36</v>
+      </c>
+      <c r="D717" s="3">
+        <v>124</v>
+      </c>
+      <c r="E717" t="s">
+        <v>67</v>
+      </c>
+      <c r="F717">
+        <v>17832</v>
+      </c>
+      <c r="G717" t="s">
+        <v>37</v>
+      </c>
+      <c r="H717" t="s">
+        <v>44</v>
+      </c>
+      <c r="I717" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9863FE-62CB-49CF-B2CA-D6EEC5378939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0211C54-20B9-491E-9EE7-1E4FDEAE0C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4305" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4365" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I717"/>
+  <dimension ref="A1:I727"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A684" workbookViewId="0">
-      <selection activeCell="G714" sqref="G714"/>
+    <sheetView tabSelected="1" topLeftCell="A694" workbookViewId="0">
+      <selection activeCell="H719" sqref="H719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -21403,6 +21403,296 @@
         <v>36</v>
       </c>
     </row>
+    <row r="718" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A718" t="s">
+        <v>42</v>
+      </c>
+      <c r="B718" s="3">
+        <v>136</v>
+      </c>
+      <c r="C718" t="s">
+        <v>20</v>
+      </c>
+      <c r="D718" s="3">
+        <v>125</v>
+      </c>
+      <c r="E718" t="s">
+        <v>67</v>
+      </c>
+      <c r="F718">
+        <v>17832</v>
+      </c>
+      <c r="G718" t="s">
+        <v>54</v>
+      </c>
+      <c r="H718" t="s">
+        <v>42</v>
+      </c>
+      <c r="I718" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="719" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A719" t="s">
+        <v>21</v>
+      </c>
+      <c r="B719" s="3">
+        <v>110</v>
+      </c>
+      <c r="C719" t="s">
+        <v>14</v>
+      </c>
+      <c r="D719" s="3">
+        <v>102</v>
+      </c>
+      <c r="E719" t="s">
+        <v>67</v>
+      </c>
+      <c r="F719">
+        <v>17832</v>
+      </c>
+      <c r="G719" t="s">
+        <v>55</v>
+      </c>
+      <c r="H719" t="s">
+        <v>21</v>
+      </c>
+      <c r="I719" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="720" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A720" t="s">
+        <v>5</v>
+      </c>
+      <c r="B720" s="3">
+        <v>120</v>
+      </c>
+      <c r="C720" t="s">
+        <v>17</v>
+      </c>
+      <c r="D720" s="3">
+        <v>129</v>
+      </c>
+      <c r="E720" t="s">
+        <v>67</v>
+      </c>
+      <c r="F720">
+        <v>17832</v>
+      </c>
+      <c r="G720" t="s">
+        <v>47</v>
+      </c>
+      <c r="H720" t="s">
+        <v>17</v>
+      </c>
+      <c r="I720" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="721" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A721" t="s">
+        <v>35</v>
+      </c>
+      <c r="B721" s="3">
+        <v>133</v>
+      </c>
+      <c r="C721" t="s">
+        <v>15</v>
+      </c>
+      <c r="D721" s="3">
+        <v>122</v>
+      </c>
+      <c r="E721" t="s">
+        <v>67</v>
+      </c>
+      <c r="F721">
+        <v>17832</v>
+      </c>
+      <c r="G721" t="s">
+        <v>16</v>
+      </c>
+      <c r="H721" t="s">
+        <v>35</v>
+      </c>
+      <c r="I721" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="722" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A722" t="s">
+        <v>24</v>
+      </c>
+      <c r="B722" s="3">
+        <v>106</v>
+      </c>
+      <c r="C722" t="s">
+        <v>8</v>
+      </c>
+      <c r="D722" s="3">
+        <v>135</v>
+      </c>
+      <c r="E722" t="s">
+        <v>67</v>
+      </c>
+      <c r="F722">
+        <v>17832</v>
+      </c>
+      <c r="G722" t="s">
+        <v>60</v>
+      </c>
+      <c r="H722" t="s">
+        <v>8</v>
+      </c>
+      <c r="I722" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="723" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A723" t="s">
+        <v>6</v>
+      </c>
+      <c r="B723" s="3">
+        <v>121</v>
+      </c>
+      <c r="C723" t="s">
+        <v>30</v>
+      </c>
+      <c r="D723" s="3">
+        <v>101</v>
+      </c>
+      <c r="E723" t="s">
+        <v>67</v>
+      </c>
+      <c r="F723">
+        <v>17832</v>
+      </c>
+      <c r="G723" t="s">
+        <v>31</v>
+      </c>
+      <c r="H723" t="s">
+        <v>6</v>
+      </c>
+      <c r="I723" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="724" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A724" t="s">
+        <v>9</v>
+      </c>
+      <c r="B724" s="3">
+        <v>108</v>
+      </c>
+      <c r="C724" t="s">
+        <v>23</v>
+      </c>
+      <c r="D724" s="3">
+        <v>106</v>
+      </c>
+      <c r="E724" t="s">
+        <v>67</v>
+      </c>
+      <c r="F724">
+        <v>17832</v>
+      </c>
+      <c r="G724" t="s">
+        <v>57</v>
+      </c>
+      <c r="H724" t="s">
+        <v>9</v>
+      </c>
+      <c r="I724" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="725" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A725" t="s">
+        <v>18</v>
+      </c>
+      <c r="B725" s="3">
+        <v>106</v>
+      </c>
+      <c r="C725" t="s">
+        <v>32</v>
+      </c>
+      <c r="D725" s="3">
+        <v>126</v>
+      </c>
+      <c r="E725" t="s">
+        <v>67</v>
+      </c>
+      <c r="F725">
+        <v>17832</v>
+      </c>
+      <c r="G725" t="s">
+        <v>59</v>
+      </c>
+      <c r="H725" t="s">
+        <v>32</v>
+      </c>
+      <c r="I725" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="726" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A726" t="s">
+        <v>29</v>
+      </c>
+      <c r="B726" s="3">
+        <v>114</v>
+      </c>
+      <c r="C726" t="s">
+        <v>39</v>
+      </c>
+      <c r="D726" s="3">
+        <v>113</v>
+      </c>
+      <c r="E726" t="s">
+        <v>67</v>
+      </c>
+      <c r="F726">
+        <v>17832</v>
+      </c>
+      <c r="G726" t="s">
+        <v>40</v>
+      </c>
+      <c r="H726" t="s">
+        <v>29</v>
+      </c>
+      <c r="I726" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="727" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A727" t="s">
+        <v>41</v>
+      </c>
+      <c r="B727" s="3">
+        <v>108</v>
+      </c>
+      <c r="C727" t="s">
+        <v>3</v>
+      </c>
+      <c r="D727" s="3">
+        <v>120</v>
+      </c>
+      <c r="E727" t="s">
+        <v>67</v>
+      </c>
+      <c r="F727">
+        <v>17832</v>
+      </c>
+      <c r="G727" t="s">
+        <v>4</v>
+      </c>
+      <c r="H727" t="s">
+        <v>3</v>
+      </c>
+      <c r="I727" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0211C54-20B9-491E-9EE7-1E4FDEAE0C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E68233-CC05-4DC2-9208-1147D53B2E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4365" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4401" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I727"/>
+  <dimension ref="A1:I733"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A694" workbookViewId="0">
-      <selection activeCell="H719" sqref="H719"/>
+    <sheetView tabSelected="1" topLeftCell="A701" workbookViewId="0">
+      <selection activeCell="A728" sqref="A728"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -21693,6 +21693,180 @@
         <v>41</v>
       </c>
     </row>
+    <row r="728" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A728" t="s">
+        <v>27</v>
+      </c>
+      <c r="B728" s="3">
+        <v>136</v>
+      </c>
+      <c r="C728" t="s">
+        <v>44</v>
+      </c>
+      <c r="D728" s="3">
+        <v>121</v>
+      </c>
+      <c r="E728" t="s">
+        <v>67</v>
+      </c>
+      <c r="F728">
+        <v>17832</v>
+      </c>
+      <c r="G728" t="s">
+        <v>61</v>
+      </c>
+      <c r="H728" t="s">
+        <v>27</v>
+      </c>
+      <c r="I728" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="729" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A729" t="s">
+        <v>6</v>
+      </c>
+      <c r="B729" s="3">
+        <v>134</v>
+      </c>
+      <c r="C729" t="s">
+        <v>17</v>
+      </c>
+      <c r="D729" s="3">
+        <v>141</v>
+      </c>
+      <c r="E729" t="s">
+        <v>50</v>
+      </c>
+      <c r="F729">
+        <v>17832</v>
+      </c>
+      <c r="G729" t="s">
+        <v>47</v>
+      </c>
+      <c r="H729" t="s">
+        <v>17</v>
+      </c>
+      <c r="I729" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="730" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A730" t="s">
+        <v>35</v>
+      </c>
+      <c r="B730" s="3">
+        <v>123</v>
+      </c>
+      <c r="C730" t="s">
+        <v>33</v>
+      </c>
+      <c r="D730" s="3">
+        <v>115</v>
+      </c>
+      <c r="E730" t="s">
+        <v>67</v>
+      </c>
+      <c r="F730">
+        <v>17832</v>
+      </c>
+      <c r="G730" t="s">
+        <v>34</v>
+      </c>
+      <c r="H730" t="s">
+        <v>35</v>
+      </c>
+      <c r="I730" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="731" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A731" t="s">
+        <v>45</v>
+      </c>
+      <c r="B731" s="3">
+        <v>129</v>
+      </c>
+      <c r="C731" t="s">
+        <v>38</v>
+      </c>
+      <c r="D731" s="3">
+        <v>117</v>
+      </c>
+      <c r="E731" t="s">
+        <v>67</v>
+      </c>
+      <c r="F731">
+        <v>17832</v>
+      </c>
+      <c r="G731" t="s">
+        <v>51</v>
+      </c>
+      <c r="H731" t="s">
+        <v>45</v>
+      </c>
+      <c r="I731" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="732" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A732" t="s">
+        <v>2</v>
+      </c>
+      <c r="B732" s="3">
+        <v>113</v>
+      </c>
+      <c r="C732" t="s">
+        <v>12</v>
+      </c>
+      <c r="D732" s="3">
+        <v>105</v>
+      </c>
+      <c r="E732" t="s">
+        <v>67</v>
+      </c>
+      <c r="F732">
+        <v>17832</v>
+      </c>
+      <c r="G732" t="s">
+        <v>13</v>
+      </c>
+      <c r="H732" t="s">
+        <v>2</v>
+      </c>
+      <c r="I732" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="733" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A733" t="s">
+        <v>26</v>
+      </c>
+      <c r="B733" s="3">
+        <v>117</v>
+      </c>
+      <c r="C733" t="s">
+        <v>39</v>
+      </c>
+      <c r="D733" s="3">
+        <v>101</v>
+      </c>
+      <c r="E733" t="s">
+        <v>67</v>
+      </c>
+      <c r="F733">
+        <v>17832</v>
+      </c>
+      <c r="G733" t="s">
+        <v>40</v>
+      </c>
+      <c r="H733" t="s">
+        <v>26</v>
+      </c>
+      <c r="I733" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E68233-CC05-4DC2-9208-1147D53B2E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5C706B-CB2E-43F8-811C-44E837A6EFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4401" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4455" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I733"/>
+  <dimension ref="A1:I742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A701" workbookViewId="0">
-      <selection activeCell="A728" sqref="A728"/>
+    <sheetView tabSelected="1" topLeftCell="A709" workbookViewId="0">
+      <selection activeCell="G735" sqref="G735"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -21867,6 +21867,267 @@
         <v>39</v>
       </c>
     </row>
+    <row r="734" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A734" t="s">
+        <v>9</v>
+      </c>
+      <c r="B734" s="3">
+        <v>111</v>
+      </c>
+      <c r="C734" t="s">
+        <v>20</v>
+      </c>
+      <c r="D734" s="3">
+        <v>99</v>
+      </c>
+      <c r="E734" t="s">
+        <v>67</v>
+      </c>
+      <c r="F734">
+        <v>17832</v>
+      </c>
+      <c r="G734" t="s">
+        <v>54</v>
+      </c>
+      <c r="H734" t="s">
+        <v>9</v>
+      </c>
+      <c r="I734" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="735" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A735" t="s">
+        <v>5</v>
+      </c>
+      <c r="B735" s="3">
+        <v>140</v>
+      </c>
+      <c r="C735" t="s">
+        <v>14</v>
+      </c>
+      <c r="D735" s="3">
+        <v>112</v>
+      </c>
+      <c r="E735" t="s">
+        <v>67</v>
+      </c>
+      <c r="F735">
+        <v>17832</v>
+      </c>
+      <c r="G735" t="s">
+        <v>55</v>
+      </c>
+      <c r="H735" t="s">
+        <v>5</v>
+      </c>
+      <c r="I735" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="736" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A736" t="s">
+        <v>30</v>
+      </c>
+      <c r="B736" s="3">
+        <v>91</v>
+      </c>
+      <c r="C736" t="s">
+        <v>11</v>
+      </c>
+      <c r="D736" s="3">
+        <v>131</v>
+      </c>
+      <c r="E736" t="s">
+        <v>67</v>
+      </c>
+      <c r="F736">
+        <v>17832</v>
+      </c>
+      <c r="G736" t="s">
+        <v>49</v>
+      </c>
+      <c r="H736" t="s">
+        <v>11</v>
+      </c>
+      <c r="I736" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="737" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A737" t="s">
+        <v>15</v>
+      </c>
+      <c r="B737" s="3">
+        <v>115</v>
+      </c>
+      <c r="C737" t="s">
+        <v>18</v>
+      </c>
+      <c r="D737" s="3">
+        <v>99</v>
+      </c>
+      <c r="E737" t="s">
+        <v>67</v>
+      </c>
+      <c r="F737">
+        <v>17832</v>
+      </c>
+      <c r="G737" t="s">
+        <v>19</v>
+      </c>
+      <c r="H737" t="s">
+        <v>15</v>
+      </c>
+      <c r="I737" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="738" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A738" t="s">
+        <v>42</v>
+      </c>
+      <c r="B738" s="3">
+        <v>103</v>
+      </c>
+      <c r="C738" t="s">
+        <v>21</v>
+      </c>
+      <c r="D738" s="3">
+        <v>95</v>
+      </c>
+      <c r="E738" t="s">
+        <v>67</v>
+      </c>
+      <c r="F738">
+        <v>17832</v>
+      </c>
+      <c r="G738" t="s">
+        <v>22</v>
+      </c>
+      <c r="H738" t="s">
+        <v>42</v>
+      </c>
+      <c r="I738" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="739" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A739" t="s">
+        <v>8</v>
+      </c>
+      <c r="B739" s="3">
+        <v>90</v>
+      </c>
+      <c r="C739" t="s">
+        <v>23</v>
+      </c>
+      <c r="D739" s="3">
+        <v>111</v>
+      </c>
+      <c r="E739" t="s">
+        <v>67</v>
+      </c>
+      <c r="F739">
+        <v>17832</v>
+      </c>
+      <c r="G739" t="s">
+        <v>57</v>
+      </c>
+      <c r="H739" t="s">
+        <v>23</v>
+      </c>
+      <c r="I739" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="740" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A740" t="s">
+        <v>24</v>
+      </c>
+      <c r="B740" s="3">
+        <v>127</v>
+      </c>
+      <c r="C740" t="s">
+        <v>32</v>
+      </c>
+      <c r="D740" s="3">
+        <v>135</v>
+      </c>
+      <c r="E740" t="s">
+        <v>67</v>
+      </c>
+      <c r="F740">
+        <v>17832</v>
+      </c>
+      <c r="G740" t="s">
+        <v>59</v>
+      </c>
+      <c r="H740" t="s">
+        <v>32</v>
+      </c>
+      <c r="I740" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="741" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A741" t="s">
+        <v>45</v>
+      </c>
+      <c r="B741" s="3">
+        <v>108</v>
+      </c>
+      <c r="C741" t="s">
+        <v>36</v>
+      </c>
+      <c r="D741" s="3">
+        <v>123</v>
+      </c>
+      <c r="E741" t="s">
+        <v>67</v>
+      </c>
+      <c r="F741">
+        <v>17832</v>
+      </c>
+      <c r="G741" t="s">
+        <v>37</v>
+      </c>
+      <c r="H741" t="s">
+        <v>36</v>
+      </c>
+      <c r="I741" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="742" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A742" t="s">
+        <v>41</v>
+      </c>
+      <c r="B742" s="3">
+        <v>103</v>
+      </c>
+      <c r="C742" t="s">
+        <v>3</v>
+      </c>
+      <c r="D742" s="3">
+        <v>112</v>
+      </c>
+      <c r="E742" t="s">
+        <v>67</v>
+      </c>
+      <c r="F742">
+        <v>17832</v>
+      </c>
+      <c r="G742" t="s">
+        <v>4</v>
+      </c>
+      <c r="H742" t="s">
+        <v>3</v>
+      </c>
+      <c r="I742" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5C706B-CB2E-43F8-811C-44E837A6EFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B774030B-60FF-40F8-B934-C64BCEBEBE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4455" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4491" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I742"/>
+  <dimension ref="A1:I748"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A709" workbookViewId="0">
-      <selection activeCell="G735" sqref="G735"/>
+    <sheetView tabSelected="1" topLeftCell="A716" workbookViewId="0">
+      <selection activeCell="G744" sqref="G744"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22128,6 +22128,180 @@
         <v>41</v>
       </c>
     </row>
+    <row r="743" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A743" t="s">
+        <v>2</v>
+      </c>
+      <c r="B743" s="3">
+        <v>124</v>
+      </c>
+      <c r="C743" t="s">
+        <v>18</v>
+      </c>
+      <c r="D743" s="3">
+        <v>118</v>
+      </c>
+      <c r="E743" t="s">
+        <v>67</v>
+      </c>
+      <c r="F743">
+        <v>17832</v>
+      </c>
+      <c r="G743" t="s">
+        <v>19</v>
+      </c>
+      <c r="H743" t="s">
+        <v>2</v>
+      </c>
+      <c r="I743" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="744" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A744" t="s">
+        <v>35</v>
+      </c>
+      <c r="B744" s="3">
+        <v>110</v>
+      </c>
+      <c r="C744" t="s">
+        <v>26</v>
+      </c>
+      <c r="D744" s="3">
+        <v>136</v>
+      </c>
+      <c r="E744" t="s">
+        <v>67</v>
+      </c>
+      <c r="F744">
+        <v>17832</v>
+      </c>
+      <c r="G744" t="s">
+        <v>48</v>
+      </c>
+      <c r="H744" t="s">
+        <v>26</v>
+      </c>
+      <c r="I744" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="745" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A745" t="s">
+        <v>38</v>
+      </c>
+      <c r="B745" s="3">
+        <v>118</v>
+      </c>
+      <c r="C745" t="s">
+        <v>44</v>
+      </c>
+      <c r="D745" s="3">
+        <v>102</v>
+      </c>
+      <c r="E745" t="s">
+        <v>67</v>
+      </c>
+      <c r="F745">
+        <v>17832</v>
+      </c>
+      <c r="G745" t="s">
+        <v>61</v>
+      </c>
+      <c r="H745" t="s">
+        <v>38</v>
+      </c>
+      <c r="I745" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="746" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A746" t="s">
+        <v>42</v>
+      </c>
+      <c r="B746" s="3">
+        <v>149</v>
+      </c>
+      <c r="C746" t="s">
+        <v>17</v>
+      </c>
+      <c r="D746" s="3">
+        <v>144</v>
+      </c>
+      <c r="E746" t="s">
+        <v>67</v>
+      </c>
+      <c r="F746">
+        <v>17832</v>
+      </c>
+      <c r="G746" t="s">
+        <v>47</v>
+      </c>
+      <c r="H746" t="s">
+        <v>42</v>
+      </c>
+      <c r="I746" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="747" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A747" t="s">
+        <v>6</v>
+      </c>
+      <c r="B747" s="3">
+        <v>109</v>
+      </c>
+      <c r="C747" t="s">
+        <v>27</v>
+      </c>
+      <c r="D747" s="3">
+        <v>98</v>
+      </c>
+      <c r="E747" t="s">
+        <v>67</v>
+      </c>
+      <c r="F747">
+        <v>17832</v>
+      </c>
+      <c r="G747" t="s">
+        <v>28</v>
+      </c>
+      <c r="H747" t="s">
+        <v>6</v>
+      </c>
+      <c r="I747" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="748" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A748" t="s">
+        <v>24</v>
+      </c>
+      <c r="B748" s="3">
+        <v>100</v>
+      </c>
+      <c r="C748" t="s">
+        <v>29</v>
+      </c>
+      <c r="D748" s="3">
+        <v>138</v>
+      </c>
+      <c r="E748" t="s">
+        <v>67</v>
+      </c>
+      <c r="F748">
+        <v>17832</v>
+      </c>
+      <c r="G748" t="s">
+        <v>56</v>
+      </c>
+      <c r="H748" t="s">
+        <v>29</v>
+      </c>
+      <c r="I748" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B774030B-60FF-40F8-B934-C64BCEBEBE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C056EF7-734E-407D-9F57-AD14100F5348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4491" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4533" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I748"/>
+  <dimension ref="A1:I755"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A716" workbookViewId="0">
-      <selection activeCell="G744" sqref="G744"/>
+    <sheetView tabSelected="1" topLeftCell="A722" workbookViewId="0">
+      <selection activeCell="H749" sqref="H749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22302,6 +22302,209 @@
         <v>24</v>
       </c>
     </row>
+    <row r="749" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A749" t="s">
+        <v>8</v>
+      </c>
+      <c r="B749" s="3">
+        <v>129</v>
+      </c>
+      <c r="C749" t="s">
+        <v>15</v>
+      </c>
+      <c r="D749" s="3">
+        <v>132</v>
+      </c>
+      <c r="E749" t="s">
+        <v>67</v>
+      </c>
+      <c r="F749">
+        <v>17832</v>
+      </c>
+      <c r="G749" t="s">
+        <v>16</v>
+      </c>
+      <c r="H749" t="s">
+        <v>15</v>
+      </c>
+      <c r="I749" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="750" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A750" t="s">
+        <v>38</v>
+      </c>
+      <c r="B750" s="3">
+        <v>119</v>
+      </c>
+      <c r="C750" t="s">
+        <v>27</v>
+      </c>
+      <c r="D750" s="3">
+        <v>107</v>
+      </c>
+      <c r="E750" t="s">
+        <v>67</v>
+      </c>
+      <c r="F750">
+        <v>17832</v>
+      </c>
+      <c r="G750" t="s">
+        <v>28</v>
+      </c>
+      <c r="H750" t="s">
+        <v>38</v>
+      </c>
+      <c r="I750" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="751" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A751" t="s">
+        <v>9</v>
+      </c>
+      <c r="B751" s="3">
+        <v>95</v>
+      </c>
+      <c r="C751" t="s">
+        <v>21</v>
+      </c>
+      <c r="D751" s="3">
+        <v>121</v>
+      </c>
+      <c r="E751" t="s">
+        <v>67</v>
+      </c>
+      <c r="F751">
+        <v>17832</v>
+      </c>
+      <c r="G751" t="s">
+        <v>22</v>
+      </c>
+      <c r="H751" t="s">
+        <v>21</v>
+      </c>
+      <c r="I751" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="752" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A752" t="s">
+        <v>30</v>
+      </c>
+      <c r="B752" s="3">
+        <v>113</v>
+      </c>
+      <c r="C752" t="s">
+        <v>12</v>
+      </c>
+      <c r="D752" s="3">
+        <v>123</v>
+      </c>
+      <c r="E752" t="s">
+        <v>67</v>
+      </c>
+      <c r="F752">
+        <v>17832</v>
+      </c>
+      <c r="G752" t="s">
+        <v>13</v>
+      </c>
+      <c r="H752" t="s">
+        <v>12</v>
+      </c>
+      <c r="I752" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="753" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A753" t="s">
+        <v>23</v>
+      </c>
+      <c r="B753" s="3">
+        <v>123</v>
+      </c>
+      <c r="C753" t="s">
+        <v>33</v>
+      </c>
+      <c r="D753" s="3">
+        <v>129</v>
+      </c>
+      <c r="E753" t="s">
+        <v>67</v>
+      </c>
+      <c r="F753">
+        <v>17832</v>
+      </c>
+      <c r="G753" t="s">
+        <v>34</v>
+      </c>
+      <c r="H753" t="s">
+        <v>33</v>
+      </c>
+      <c r="I753" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="754" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A754" t="s">
+        <v>32</v>
+      </c>
+      <c r="B754" s="3">
+        <v>117</v>
+      </c>
+      <c r="C754" t="s">
+        <v>36</v>
+      </c>
+      <c r="D754" s="3">
+        <v>124</v>
+      </c>
+      <c r="E754" t="s">
+        <v>67</v>
+      </c>
+      <c r="F754">
+        <v>17832</v>
+      </c>
+      <c r="G754" t="s">
+        <v>37</v>
+      </c>
+      <c r="H754" t="s">
+        <v>36</v>
+      </c>
+      <c r="I754" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="755" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A755" t="s">
+        <v>45</v>
+      </c>
+      <c r="B755" s="3">
+        <v>106</v>
+      </c>
+      <c r="C755" t="s">
+        <v>5</v>
+      </c>
+      <c r="D755" s="3">
+        <v>114</v>
+      </c>
+      <c r="E755" t="s">
+        <v>67</v>
+      </c>
+      <c r="F755">
+        <v>17832</v>
+      </c>
+      <c r="G755" t="s">
+        <v>58</v>
+      </c>
+      <c r="H755" t="s">
+        <v>5</v>
+      </c>
+      <c r="I755" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C056EF7-734E-407D-9F57-AD14100F5348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6288FD1D-3257-4BDC-9FEB-27A5648B3D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4533" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4575" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I755"/>
+  <dimension ref="A1:I762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A722" workbookViewId="0">
-      <selection activeCell="H749" sqref="H749"/>
+    <sheetView tabSelected="1" topLeftCell="A729" workbookViewId="0">
+      <selection activeCell="G757" sqref="G757"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22505,6 +22505,209 @@
         <v>45</v>
       </c>
     </row>
+    <row r="756" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A756" t="s">
+        <v>24</v>
+      </c>
+      <c r="B756" s="3">
+        <v>123</v>
+      </c>
+      <c r="C756" t="s">
+        <v>18</v>
+      </c>
+      <c r="D756" s="3">
+        <v>117</v>
+      </c>
+      <c r="E756" t="s">
+        <v>67</v>
+      </c>
+      <c r="F756">
+        <v>17832</v>
+      </c>
+      <c r="G756" t="s">
+        <v>19</v>
+      </c>
+      <c r="H756" t="s">
+        <v>24</v>
+      </c>
+      <c r="I756" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="757" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A757" t="s">
+        <v>26</v>
+      </c>
+      <c r="B757" s="3">
+        <v>114</v>
+      </c>
+      <c r="C757" t="s">
+        <v>14</v>
+      </c>
+      <c r="D757" s="3">
+        <v>106</v>
+      </c>
+      <c r="E757" t="s">
+        <v>67</v>
+      </c>
+      <c r="F757">
+        <v>17832</v>
+      </c>
+      <c r="G757" t="s">
+        <v>55</v>
+      </c>
+      <c r="H757" t="s">
+        <v>26</v>
+      </c>
+      <c r="I757" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="758" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A758" t="s">
+        <v>17</v>
+      </c>
+      <c r="B758" s="3">
+        <v>117</v>
+      </c>
+      <c r="C758" t="s">
+        <v>11</v>
+      </c>
+      <c r="D758" s="3">
+        <v>125</v>
+      </c>
+      <c r="E758" t="s">
+        <v>67</v>
+      </c>
+      <c r="F758">
+        <v>17832</v>
+      </c>
+      <c r="G758" t="s">
+        <v>49</v>
+      </c>
+      <c r="H758" t="s">
+        <v>11</v>
+      </c>
+      <c r="I758" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="759" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A759" t="s">
+        <v>39</v>
+      </c>
+      <c r="B759" s="3">
+        <v>104</v>
+      </c>
+      <c r="C759" t="s">
+        <v>21</v>
+      </c>
+      <c r="D759" s="3">
+        <v>116</v>
+      </c>
+      <c r="E759" t="s">
+        <v>67</v>
+      </c>
+      <c r="F759">
+        <v>17832</v>
+      </c>
+      <c r="G759" t="s">
+        <v>22</v>
+      </c>
+      <c r="H759" t="s">
+        <v>21</v>
+      </c>
+      <c r="I759" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="760" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A760" t="s">
+        <v>6</v>
+      </c>
+      <c r="B760" s="3">
+        <v>127</v>
+      </c>
+      <c r="C760" t="s">
+        <v>44</v>
+      </c>
+      <c r="D760" s="3">
+        <v>104</v>
+      </c>
+      <c r="E760" t="s">
+        <v>67</v>
+      </c>
+      <c r="F760">
+        <v>17832</v>
+      </c>
+      <c r="G760" t="s">
+        <v>61</v>
+      </c>
+      <c r="H760" t="s">
+        <v>6</v>
+      </c>
+      <c r="I760" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="761" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A761" t="s">
+        <v>29</v>
+      </c>
+      <c r="B761" s="3">
+        <v>117</v>
+      </c>
+      <c r="C761" t="s">
+        <v>42</v>
+      </c>
+      <c r="D761" s="3">
+        <v>106</v>
+      </c>
+      <c r="E761" t="s">
+        <v>67</v>
+      </c>
+      <c r="F761">
+        <v>17832</v>
+      </c>
+      <c r="G761" t="s">
+        <v>43</v>
+      </c>
+      <c r="H761" t="s">
+        <v>29</v>
+      </c>
+      <c r="I761" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="762" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A762" t="s">
+        <v>20</v>
+      </c>
+      <c r="B762" s="3">
+        <v>133</v>
+      </c>
+      <c r="C762" t="s">
+        <v>35</v>
+      </c>
+      <c r="D762" s="3">
+        <v>120</v>
+      </c>
+      <c r="E762" t="s">
+        <v>67</v>
+      </c>
+      <c r="F762">
+        <v>17832</v>
+      </c>
+      <c r="G762" t="s">
+        <v>53</v>
+      </c>
+      <c r="H762" t="s">
+        <v>20</v>
+      </c>
+      <c r="I762" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6288FD1D-3257-4BDC-9FEB-27A5648B3D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADECB831-248C-4CB0-B2CB-BDDE400FC474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4575" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4629" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I762"/>
+  <dimension ref="A1:I771"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A729" workbookViewId="0">
-      <selection activeCell="G757" sqref="G757"/>
+    <sheetView tabSelected="1" topLeftCell="A739" workbookViewId="0">
+      <selection activeCell="G763" sqref="G763"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22708,6 +22708,267 @@
         <v>35</v>
       </c>
     </row>
+    <row r="763" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A763" t="s">
+        <v>6</v>
+      </c>
+      <c r="B763" s="3">
+        <v>131</v>
+      </c>
+      <c r="C763" t="s">
+        <v>15</v>
+      </c>
+      <c r="D763" s="3">
+        <v>109</v>
+      </c>
+      <c r="E763" t="s">
+        <v>67</v>
+      </c>
+      <c r="F763">
+        <v>17832</v>
+      </c>
+      <c r="G763" t="s">
+        <v>16</v>
+      </c>
+      <c r="H763" t="s">
+        <v>6</v>
+      </c>
+      <c r="I763" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="764" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A764" t="s">
+        <v>39</v>
+      </c>
+      <c r="B764" s="3">
+        <v>111</v>
+      </c>
+      <c r="C764" t="s">
+        <v>9</v>
+      </c>
+      <c r="D764" s="3">
+        <v>127</v>
+      </c>
+      <c r="E764" t="s">
+        <v>67</v>
+      </c>
+      <c r="F764">
+        <v>17832</v>
+      </c>
+      <c r="G764" t="s">
+        <v>10</v>
+      </c>
+      <c r="H764" t="s">
+        <v>9</v>
+      </c>
+      <c r="I764" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="765" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A765" t="s">
+        <v>26</v>
+      </c>
+      <c r="B765" s="3">
+        <v>118</v>
+      </c>
+      <c r="C765" t="s">
+        <v>27</v>
+      </c>
+      <c r="D765" s="3">
+        <v>95</v>
+      </c>
+      <c r="E765" t="s">
+        <v>67</v>
+      </c>
+      <c r="F765">
+        <v>17832</v>
+      </c>
+      <c r="G765" t="s">
+        <v>28</v>
+      </c>
+      <c r="H765" t="s">
+        <v>26</v>
+      </c>
+      <c r="I765" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="766" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A766" t="s">
+        <v>38</v>
+      </c>
+      <c r="B766" s="3">
+        <v>122</v>
+      </c>
+      <c r="C766" t="s">
+        <v>12</v>
+      </c>
+      <c r="D766" s="3">
+        <v>108</v>
+      </c>
+      <c r="E766" t="s">
+        <v>67</v>
+      </c>
+      <c r="F766">
+        <v>17832</v>
+      </c>
+      <c r="G766" t="s">
+        <v>13</v>
+      </c>
+      <c r="H766" t="s">
+        <v>38</v>
+      </c>
+      <c r="I766" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="767" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A767" t="s">
+        <v>33</v>
+      </c>
+      <c r="B767" s="3">
+        <v>118</v>
+      </c>
+      <c r="C767" t="s">
+        <v>30</v>
+      </c>
+      <c r="D767" s="3">
+        <v>110</v>
+      </c>
+      <c r="E767" t="s">
+        <v>67</v>
+      </c>
+      <c r="F767">
+        <v>17832</v>
+      </c>
+      <c r="G767" t="s">
+        <v>31</v>
+      </c>
+      <c r="H767" t="s">
+        <v>33</v>
+      </c>
+      <c r="I767" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="768" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A768" t="s">
+        <v>23</v>
+      </c>
+      <c r="B768" s="3">
+        <v>129</v>
+      </c>
+      <c r="C768" t="s">
+        <v>45</v>
+      </c>
+      <c r="D768" s="3">
+        <v>105</v>
+      </c>
+      <c r="E768" t="s">
+        <v>67</v>
+      </c>
+      <c r="F768">
+        <v>17832</v>
+      </c>
+      <c r="G768" t="s">
+        <v>46</v>
+      </c>
+      <c r="H768" t="s">
+        <v>23</v>
+      </c>
+      <c r="I768" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="769" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A769" t="s">
+        <v>36</v>
+      </c>
+      <c r="B769" s="3">
+        <v>115</v>
+      </c>
+      <c r="C769" t="s">
+        <v>5</v>
+      </c>
+      <c r="D769" s="3">
+        <v>129</v>
+      </c>
+      <c r="E769" t="s">
+        <v>67</v>
+      </c>
+      <c r="F769">
+        <v>17832</v>
+      </c>
+      <c r="G769" t="s">
+        <v>58</v>
+      </c>
+      <c r="H769" t="s">
+        <v>5</v>
+      </c>
+      <c r="I769" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="770" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A770" t="s">
+        <v>3</v>
+      </c>
+      <c r="B770" s="3">
+        <v>114</v>
+      </c>
+      <c r="C770" t="s">
+        <v>2</v>
+      </c>
+      <c r="D770" s="3">
+        <v>106</v>
+      </c>
+      <c r="E770" t="s">
+        <v>67</v>
+      </c>
+      <c r="F770">
+        <v>17832</v>
+      </c>
+      <c r="G770" t="s">
+        <v>43</v>
+      </c>
+      <c r="H770" t="s">
+        <v>3</v>
+      </c>
+      <c r="I770" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="771" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A771" t="s">
+        <v>20</v>
+      </c>
+      <c r="B771" s="3">
+        <v>128</v>
+      </c>
+      <c r="C771" t="s">
+        <v>41</v>
+      </c>
+      <c r="D771" s="3">
+        <v>122</v>
+      </c>
+      <c r="E771" t="s">
+        <v>50</v>
+      </c>
+      <c r="F771">
+        <v>17832</v>
+      </c>
+      <c r="G771" t="s">
+        <v>52</v>
+      </c>
+      <c r="H771" t="s">
+        <v>20</v>
+      </c>
+      <c r="I771" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADECB831-248C-4CB0-B2CB-BDDE400FC474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7335E817-649E-4A7A-80FE-A0D13C8A4FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4629" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4665" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I771"/>
+  <dimension ref="A1:I777"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A739" workbookViewId="0">
-      <selection activeCell="G763" sqref="G763"/>
+    <sheetView tabSelected="1" topLeftCell="A744" workbookViewId="0">
+      <selection activeCell="G777" sqref="G777"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22969,6 +22969,180 @@
         <v>41</v>
       </c>
     </row>
+    <row r="772" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A772" t="s">
+        <v>17</v>
+      </c>
+      <c r="B772" s="3">
+        <v>127</v>
+      </c>
+      <c r="C772" t="s">
+        <v>44</v>
+      </c>
+      <c r="D772" s="3">
+        <v>121</v>
+      </c>
+      <c r="E772" t="s">
+        <v>67</v>
+      </c>
+      <c r="F772">
+        <v>17832</v>
+      </c>
+      <c r="G772" t="s">
+        <v>61</v>
+      </c>
+      <c r="H772" t="s">
+        <v>17</v>
+      </c>
+      <c r="I772" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="773" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A773" t="s">
+        <v>14</v>
+      </c>
+      <c r="B773" s="3">
+        <v>129</v>
+      </c>
+      <c r="C773" t="s">
+        <v>11</v>
+      </c>
+      <c r="D773" s="3">
+        <v>133</v>
+      </c>
+      <c r="E773" t="s">
+        <v>67</v>
+      </c>
+      <c r="F773">
+        <v>17832</v>
+      </c>
+      <c r="G773" t="s">
+        <v>49</v>
+      </c>
+      <c r="H773" t="s">
+        <v>11</v>
+      </c>
+      <c r="I773" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="774" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A774" t="s">
+        <v>8</v>
+      </c>
+      <c r="B774" s="3">
+        <v>104</v>
+      </c>
+      <c r="C774" t="s">
+        <v>24</v>
+      </c>
+      <c r="D774" s="3">
+        <v>107</v>
+      </c>
+      <c r="E774" t="s">
+        <v>67</v>
+      </c>
+      <c r="F774">
+        <v>17832</v>
+      </c>
+      <c r="G774" t="s">
+        <v>25</v>
+      </c>
+      <c r="H774" t="s">
+        <v>24</v>
+      </c>
+      <c r="I774" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="775" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A775" t="s">
+        <v>18</v>
+      </c>
+      <c r="B775" s="3">
+        <v>84</v>
+      </c>
+      <c r="C775" t="s">
+        <v>45</v>
+      </c>
+      <c r="D775" s="3">
+        <v>120</v>
+      </c>
+      <c r="E775" t="s">
+        <v>67</v>
+      </c>
+      <c r="F775">
+        <v>17832</v>
+      </c>
+      <c r="G775" t="s">
+        <v>46</v>
+      </c>
+      <c r="H775" t="s">
+        <v>45</v>
+      </c>
+      <c r="I775" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="776" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A776" t="s">
+        <v>3</v>
+      </c>
+      <c r="B776" s="3">
+        <v>106</v>
+      </c>
+      <c r="C776" t="s">
+        <v>35</v>
+      </c>
+      <c r="D776" s="3">
+        <v>135</v>
+      </c>
+      <c r="E776" t="s">
+        <v>67</v>
+      </c>
+      <c r="F776">
+        <v>17832</v>
+      </c>
+      <c r="G776" t="s">
+        <v>53</v>
+      </c>
+      <c r="H776" t="s">
+        <v>35</v>
+      </c>
+      <c r="I776" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="777" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A777" t="s">
+        <v>29</v>
+      </c>
+      <c r="B777" s="3">
+        <v>122</v>
+      </c>
+      <c r="C777" t="s">
+        <v>2</v>
+      </c>
+      <c r="D777" s="3">
+        <v>139</v>
+      </c>
+      <c r="E777" t="s">
+        <v>67</v>
+      </c>
+      <c r="F777">
+        <v>17832</v>
+      </c>
+      <c r="G777" t="s">
+        <v>43</v>
+      </c>
+      <c r="H777" t="s">
+        <v>2</v>
+      </c>
+      <c r="I777" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7335E817-649E-4A7A-80FE-A0D13C8A4FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7073908-5836-4AC8-84DE-0218273BCC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4665" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I777"/>
+  <dimension ref="A1:I788"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A744" workbookViewId="0">
-      <selection activeCell="G777" sqref="G777"/>
+    <sheetView tabSelected="1" topLeftCell="A758" workbookViewId="0">
+      <selection activeCell="A778" sqref="A778"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23143,6 +23143,325 @@
         <v>29</v>
       </c>
     </row>
+    <row r="778" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A778" t="s">
+        <v>32</v>
+      </c>
+      <c r="B778" s="3">
+        <v>111</v>
+      </c>
+      <c r="C778" t="s">
+        <v>38</v>
+      </c>
+      <c r="D778" s="3">
+        <v>146</v>
+      </c>
+      <c r="E778" t="s">
+        <v>67</v>
+      </c>
+      <c r="F778">
+        <v>17832</v>
+      </c>
+      <c r="G778" t="s">
+        <v>51</v>
+      </c>
+      <c r="H778" t="s">
+        <v>38</v>
+      </c>
+      <c r="I778" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="779" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A779" t="s">
+        <v>20</v>
+      </c>
+      <c r="B779" s="3">
+        <v>106</v>
+      </c>
+      <c r="C779" t="s">
+        <v>42</v>
+      </c>
+      <c r="D779" s="3">
+        <v>112</v>
+      </c>
+      <c r="E779" t="s">
+        <v>67</v>
+      </c>
+      <c r="F779">
+        <v>17832</v>
+      </c>
+      <c r="G779" t="s">
+        <v>43</v>
+      </c>
+      <c r="H779" t="s">
+        <v>42</v>
+      </c>
+      <c r="I779" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="780" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A780" t="s">
+        <v>39</v>
+      </c>
+      <c r="B780" s="3">
+        <v>103</v>
+      </c>
+      <c r="C780" t="s">
+        <v>27</v>
+      </c>
+      <c r="D780" s="3">
+        <v>123</v>
+      </c>
+      <c r="E780" t="s">
+        <v>67</v>
+      </c>
+      <c r="F780">
+        <v>17832</v>
+      </c>
+      <c r="G780" t="s">
+        <v>28</v>
+      </c>
+      <c r="H780" t="s">
+        <v>27</v>
+      </c>
+      <c r="I780" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="781" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A781" t="s">
+        <v>30</v>
+      </c>
+      <c r="B781" s="3">
+        <v>106</v>
+      </c>
+      <c r="C781" t="s">
+        <v>18</v>
+      </c>
+      <c r="D781" s="3">
+        <v>115</v>
+      </c>
+      <c r="E781" t="s">
+        <v>67</v>
+      </c>
+      <c r="F781">
+        <v>17832</v>
+      </c>
+      <c r="G781" t="s">
+        <v>19</v>
+      </c>
+      <c r="H781" t="s">
+        <v>18</v>
+      </c>
+      <c r="I781" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="782" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A782" t="s">
+        <v>33</v>
+      </c>
+      <c r="B782" s="3">
+        <v>108</v>
+      </c>
+      <c r="C782" t="s">
+        <v>9</v>
+      </c>
+      <c r="D782" s="3">
+        <v>114</v>
+      </c>
+      <c r="E782" t="s">
+        <v>67</v>
+      </c>
+      <c r="F782">
+        <v>17832</v>
+      </c>
+      <c r="G782" t="s">
+        <v>10</v>
+      </c>
+      <c r="H782" t="s">
+        <v>9</v>
+      </c>
+      <c r="I782" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="783" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A783" t="s">
+        <v>44</v>
+      </c>
+      <c r="B783" s="3">
+        <v>119</v>
+      </c>
+      <c r="C783" t="s">
+        <v>14</v>
+      </c>
+      <c r="D783" s="3">
+        <v>113</v>
+      </c>
+      <c r="E783" t="s">
+        <v>67</v>
+      </c>
+      <c r="F783">
+        <v>17832</v>
+      </c>
+      <c r="G783" t="s">
+        <v>55</v>
+      </c>
+      <c r="H783" t="s">
+        <v>44</v>
+      </c>
+      <c r="I783" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="784" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A784" t="s">
+        <v>8</v>
+      </c>
+      <c r="B784" s="3">
+        <v>113</v>
+      </c>
+      <c r="C784" t="s">
+        <v>17</v>
+      </c>
+      <c r="D784" s="3">
+        <v>122</v>
+      </c>
+      <c r="E784" t="s">
+        <v>67</v>
+      </c>
+      <c r="F784">
+        <v>17832</v>
+      </c>
+      <c r="G784" t="s">
+        <v>47</v>
+      </c>
+      <c r="H784" t="s">
+        <v>17</v>
+      </c>
+      <c r="I784" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="785" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A785" t="s">
+        <v>15</v>
+      </c>
+      <c r="B785" s="3">
+        <v>125</v>
+      </c>
+      <c r="C785" t="s">
+        <v>12</v>
+      </c>
+      <c r="D785" s="3">
+        <v>111</v>
+      </c>
+      <c r="E785" t="s">
+        <v>67</v>
+      </c>
+      <c r="F785">
+        <v>17832</v>
+      </c>
+      <c r="G785" t="s">
+        <v>13</v>
+      </c>
+      <c r="H785" t="s">
+        <v>15</v>
+      </c>
+      <c r="I785" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="786" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A786" t="s">
+        <v>26</v>
+      </c>
+      <c r="B786" s="3">
+        <v>119</v>
+      </c>
+      <c r="C786" t="s">
+        <v>24</v>
+      </c>
+      <c r="D786" s="3">
+        <v>95</v>
+      </c>
+      <c r="E786" t="s">
+        <v>67</v>
+      </c>
+      <c r="F786">
+        <v>17832</v>
+      </c>
+      <c r="G786" t="s">
+        <v>25</v>
+      </c>
+      <c r="H786" t="s">
+        <v>26</v>
+      </c>
+      <c r="I786" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="787" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A787" t="s">
+        <v>5</v>
+      </c>
+      <c r="B787" s="3">
+        <v>112</v>
+      </c>
+      <c r="C787" t="s">
+        <v>6</v>
+      </c>
+      <c r="D787" s="3">
+        <v>113</v>
+      </c>
+      <c r="E787" t="s">
+        <v>67</v>
+      </c>
+      <c r="F787">
+        <v>17832</v>
+      </c>
+      <c r="G787" t="s">
+        <v>7</v>
+      </c>
+      <c r="H787" t="s">
+        <v>6</v>
+      </c>
+      <c r="I787" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="788" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A788" t="s">
+        <v>29</v>
+      </c>
+      <c r="B788" s="3">
+        <v>93</v>
+      </c>
+      <c r="C788" t="s">
+        <v>41</v>
+      </c>
+      <c r="D788" s="3">
+        <v>84</v>
+      </c>
+      <c r="E788" t="s">
+        <v>67</v>
+      </c>
+      <c r="F788">
+        <v>17832</v>
+      </c>
+      <c r="G788" t="s">
+        <v>52</v>
+      </c>
+      <c r="H788" t="s">
+        <v>29</v>
+      </c>
+      <c r="I788" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7073908-5836-4AC8-84DE-0218273BCC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E7FBFD-C9F0-4018-9289-9D6454F74509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4743" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I788"/>
+  <dimension ref="A1:I790"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A758" workbookViewId="0">
-      <selection activeCell="A778" sqref="A778"/>
+      <selection activeCell="H790" sqref="H790"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23462,6 +23462,64 @@
         <v>41</v>
       </c>
     </row>
+    <row r="789" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A789" t="s">
+        <v>11</v>
+      </c>
+      <c r="B789" s="3">
+        <v>110</v>
+      </c>
+      <c r="C789" t="s">
+        <v>21</v>
+      </c>
+      <c r="D789" s="3">
+        <v>106</v>
+      </c>
+      <c r="E789" t="s">
+        <v>67</v>
+      </c>
+      <c r="F789">
+        <v>17832</v>
+      </c>
+      <c r="G789" t="s">
+        <v>22</v>
+      </c>
+      <c r="H789" t="s">
+        <v>11</v>
+      </c>
+      <c r="I789" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="790" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A790" t="s">
+        <v>35</v>
+      </c>
+      <c r="B790" s="3">
+        <v>113</v>
+      </c>
+      <c r="C790" t="s">
+        <v>32</v>
+      </c>
+      <c r="D790" s="3">
+        <v>127</v>
+      </c>
+      <c r="E790" t="s">
+        <v>67</v>
+      </c>
+      <c r="F790">
+        <v>17832</v>
+      </c>
+      <c r="G790" t="s">
+        <v>59</v>
+      </c>
+      <c r="H790" t="s">
+        <v>32</v>
+      </c>
+      <c r="I790" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E7FBFD-C9F0-4018-9289-9D6454F74509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220EEC9F-C872-4D71-AEB7-1BDB3A771BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4743" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4803" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I790"/>
+  <dimension ref="A1:I800"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A758" workbookViewId="0">
-      <selection activeCell="H790" sqref="H790"/>
+    <sheetView tabSelected="1" topLeftCell="A770" workbookViewId="0">
+      <selection activeCell="A800" sqref="A800"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23520,6 +23520,296 @@
         <v>35</v>
       </c>
     </row>
+    <row r="791" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A791" t="s">
+        <v>15</v>
+      </c>
+      <c r="B791" s="3">
+        <v>102</v>
+      </c>
+      <c r="C791" t="s">
+        <v>18</v>
+      </c>
+      <c r="D791" s="3">
+        <v>111</v>
+      </c>
+      <c r="E791" t="s">
+        <v>67</v>
+      </c>
+      <c r="F791">
+        <v>17832</v>
+      </c>
+      <c r="G791" t="s">
+        <v>19</v>
+      </c>
+      <c r="H791" t="s">
+        <v>18</v>
+      </c>
+      <c r="I791" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="792" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A792" t="s">
+        <v>44</v>
+      </c>
+      <c r="B792" s="3">
+        <v>123</v>
+      </c>
+      <c r="C792" t="s">
+        <v>26</v>
+      </c>
+      <c r="D792" s="3">
+        <v>121</v>
+      </c>
+      <c r="E792" t="s">
+        <v>67</v>
+      </c>
+      <c r="F792">
+        <v>17832</v>
+      </c>
+      <c r="G792" t="s">
+        <v>48</v>
+      </c>
+      <c r="H792" t="s">
+        <v>44</v>
+      </c>
+      <c r="I792" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="793" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A793" t="s">
+        <v>33</v>
+      </c>
+      <c r="B793" s="3">
+        <v>136</v>
+      </c>
+      <c r="C793" t="s">
+        <v>17</v>
+      </c>
+      <c r="D793" s="3">
+        <v>126</v>
+      </c>
+      <c r="E793" t="s">
+        <v>67</v>
+      </c>
+      <c r="F793">
+        <v>17832</v>
+      </c>
+      <c r="G793" t="s">
+        <v>47</v>
+      </c>
+      <c r="H793" t="s">
+        <v>33</v>
+      </c>
+      <c r="I793" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="794" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A794" t="s">
+        <v>39</v>
+      </c>
+      <c r="B794" s="3">
+        <v>122</v>
+      </c>
+      <c r="C794" t="s">
+        <v>24</v>
+      </c>
+      <c r="D794" s="3">
+        <v>99</v>
+      </c>
+      <c r="E794" t="s">
+        <v>67</v>
+      </c>
+      <c r="F794">
+        <v>17832</v>
+      </c>
+      <c r="G794" t="s">
+        <v>25</v>
+      </c>
+      <c r="H794" t="s">
+        <v>39</v>
+      </c>
+      <c r="I794" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="795" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A795" t="s">
+        <v>12</v>
+      </c>
+      <c r="B795" s="3">
+        <v>103</v>
+      </c>
+      <c r="C795" t="s">
+        <v>8</v>
+      </c>
+      <c r="D795" s="3">
+        <v>105</v>
+      </c>
+      <c r="E795" t="s">
+        <v>67</v>
+      </c>
+      <c r="F795">
+        <v>17832</v>
+      </c>
+      <c r="G795" t="s">
+        <v>60</v>
+      </c>
+      <c r="H795" t="s">
+        <v>8</v>
+      </c>
+      <c r="I795" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="796" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A796" t="s">
+        <v>29</v>
+      </c>
+      <c r="B796" s="3">
+        <v>96</v>
+      </c>
+      <c r="C796" t="s">
+        <v>30</v>
+      </c>
+      <c r="D796" s="3">
+        <v>87</v>
+      </c>
+      <c r="E796" t="s">
+        <v>67</v>
+      </c>
+      <c r="F796">
+        <v>17832</v>
+      </c>
+      <c r="G796" t="s">
+        <v>31</v>
+      </c>
+      <c r="H796" t="s">
+        <v>29</v>
+      </c>
+      <c r="I796" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="797" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A797" t="s">
+        <v>3</v>
+      </c>
+      <c r="B797" s="3">
+        <v>95</v>
+      </c>
+      <c r="C797" t="s">
+        <v>45</v>
+      </c>
+      <c r="D797" s="3">
+        <v>112</v>
+      </c>
+      <c r="E797" t="s">
+        <v>67</v>
+      </c>
+      <c r="F797">
+        <v>17832</v>
+      </c>
+      <c r="G797" t="s">
+        <v>46</v>
+      </c>
+      <c r="H797" t="s">
+        <v>45</v>
+      </c>
+      <c r="I797" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="798" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A798" t="s">
+        <v>14</v>
+      </c>
+      <c r="B798" s="3">
+        <v>104</v>
+      </c>
+      <c r="C798" t="s">
+        <v>38</v>
+      </c>
+      <c r="D798" s="3">
+        <v>112</v>
+      </c>
+      <c r="E798" t="s">
+        <v>67</v>
+      </c>
+      <c r="F798">
+        <v>17832</v>
+      </c>
+      <c r="G798" t="s">
+        <v>51</v>
+      </c>
+      <c r="H798" t="s">
+        <v>38</v>
+      </c>
+      <c r="I798" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="799" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A799" t="s">
+        <v>6</v>
+      </c>
+      <c r="B799" s="3">
+        <v>129</v>
+      </c>
+      <c r="C799" t="s">
+        <v>36</v>
+      </c>
+      <c r="D799" s="3">
+        <v>107</v>
+      </c>
+      <c r="E799" t="s">
+        <v>67</v>
+      </c>
+      <c r="F799">
+        <v>17832</v>
+      </c>
+      <c r="G799" t="s">
+        <v>37</v>
+      </c>
+      <c r="H799" t="s">
+        <v>6</v>
+      </c>
+      <c r="I799" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="800" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A800" t="s">
+        <v>23</v>
+      </c>
+      <c r="B800" s="3">
+        <v>121</v>
+      </c>
+      <c r="C800" t="s">
+        <v>42</v>
+      </c>
+      <c r="D800" s="3">
+        <v>100</v>
+      </c>
+      <c r="E800" t="s">
+        <v>67</v>
+      </c>
+      <c r="F800">
+        <v>17832</v>
+      </c>
+      <c r="G800" t="s">
+        <v>43</v>
+      </c>
+      <c r="H800" t="s">
+        <v>23</v>
+      </c>
+      <c r="I800" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220EEC9F-C872-4D71-AEB7-1BDB3A771BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D851D6-7364-42C3-BFFE-15D9A4CBA632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4803" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4839" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I800"/>
+  <dimension ref="A1:I806"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A770" workbookViewId="0">
-      <selection activeCell="A800" sqref="A800"/>
+    <sheetView tabSelected="1" topLeftCell="A774" workbookViewId="0">
+      <selection activeCell="G801" sqref="G801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23810,6 +23810,180 @@
         <v>42</v>
       </c>
     </row>
+    <row r="801" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A801" t="s">
+        <v>11</v>
+      </c>
+      <c r="B801" s="3">
+        <v>118</v>
+      </c>
+      <c r="C801" t="s">
+        <v>27</v>
+      </c>
+      <c r="D801" s="3">
+        <v>110</v>
+      </c>
+      <c r="E801" t="s">
+        <v>67</v>
+      </c>
+      <c r="F801">
+        <v>17832</v>
+      </c>
+      <c r="G801" t="s">
+        <v>28</v>
+      </c>
+      <c r="H801" t="s">
+        <v>11</v>
+      </c>
+      <c r="I801" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="802" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A802" t="s">
+        <v>32</v>
+      </c>
+      <c r="B802" s="3">
+        <v>127</v>
+      </c>
+      <c r="C802" t="s">
+        <v>9</v>
+      </c>
+      <c r="D802" s="3">
+        <v>113</v>
+      </c>
+      <c r="E802" t="s">
+        <v>67</v>
+      </c>
+      <c r="F802">
+        <v>17832</v>
+      </c>
+      <c r="G802" t="s">
+        <v>10</v>
+      </c>
+      <c r="H802" t="s">
+        <v>32</v>
+      </c>
+      <c r="I802" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="803" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A803" t="s">
+        <v>21</v>
+      </c>
+      <c r="B803" s="3">
+        <v>123</v>
+      </c>
+      <c r="C803" t="s">
+        <v>45</v>
+      </c>
+      <c r="D803" s="3">
+        <v>97</v>
+      </c>
+      <c r="E803" t="s">
+        <v>67</v>
+      </c>
+      <c r="F803">
+        <v>17832</v>
+      </c>
+      <c r="G803" t="s">
+        <v>46</v>
+      </c>
+      <c r="H803" t="s">
+        <v>21</v>
+      </c>
+      <c r="I803" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="804" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A804" t="s">
+        <v>35</v>
+      </c>
+      <c r="B804" s="3">
+        <v>125</v>
+      </c>
+      <c r="C804" t="s">
+        <v>5</v>
+      </c>
+      <c r="D804" s="3">
+        <v>130</v>
+      </c>
+      <c r="E804" t="s">
+        <v>67</v>
+      </c>
+      <c r="F804">
+        <v>17832</v>
+      </c>
+      <c r="G804" t="s">
+        <v>58</v>
+      </c>
+      <c r="H804" t="s">
+        <v>5</v>
+      </c>
+      <c r="I804" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="805" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A805" t="s">
+        <v>23</v>
+      </c>
+      <c r="B805" s="3">
+        <v>121</v>
+      </c>
+      <c r="C805" t="s">
+        <v>41</v>
+      </c>
+      <c r="D805" s="3">
+        <v>109</v>
+      </c>
+      <c r="E805" t="s">
+        <v>67</v>
+      </c>
+      <c r="F805">
+        <v>17832</v>
+      </c>
+      <c r="G805" t="s">
+        <v>52</v>
+      </c>
+      <c r="H805" t="s">
+        <v>23</v>
+      </c>
+      <c r="I805" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="806" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A806" t="s">
+        <v>20</v>
+      </c>
+      <c r="B806" s="3">
+        <v>111</v>
+      </c>
+      <c r="C806" t="s">
+        <v>2</v>
+      </c>
+      <c r="D806" s="3">
+        <v>125</v>
+      </c>
+      <c r="E806" t="s">
+        <v>67</v>
+      </c>
+      <c r="F806">
+        <v>17832</v>
+      </c>
+      <c r="G806" t="s">
+        <v>43</v>
+      </c>
+      <c r="H806" t="s">
+        <v>2</v>
+      </c>
+      <c r="I806" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D851D6-7364-42C3-BFFE-15D9A4CBA632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EE4977-7EA4-4D33-AED5-F26D34100049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4839" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4904" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I806"/>
+  <dimension ref="A1:I819"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A774" workbookViewId="0">
-      <selection activeCell="G801" sqref="G801"/>
+    <sheetView tabSelected="1" topLeftCell="A787" workbookViewId="0">
+      <selection activeCell="F808" sqref="F808"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23984,6 +23984,344 @@
         <v>20</v>
       </c>
     </row>
+    <row r="807" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A807" t="s">
+        <v>17</v>
+      </c>
+      <c r="B807">
+        <v>99</v>
+      </c>
+      <c r="C807" t="s">
+        <v>18</v>
+      </c>
+      <c r="D807">
+        <v>122</v>
+      </c>
+      <c r="F807">
+        <v>17832</v>
+      </c>
+      <c r="G807" t="s">
+        <v>19</v>
+      </c>
+      <c r="H807" t="s">
+        <v>18</v>
+      </c>
+      <c r="I807" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="808" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A808" t="s">
+        <v>12</v>
+      </c>
+      <c r="B808">
+        <v>100</v>
+      </c>
+      <c r="C808" t="s">
+        <v>9</v>
+      </c>
+      <c r="D808">
+        <v>118</v>
+      </c>
+      <c r="F808">
+        <v>17832</v>
+      </c>
+      <c r="G808" t="s">
+        <v>10</v>
+      </c>
+      <c r="H808" t="s">
+        <v>9</v>
+      </c>
+      <c r="I808" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="809" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A809" t="s">
+        <v>21</v>
+      </c>
+      <c r="B809">
+        <v>109</v>
+      </c>
+      <c r="C809" t="s">
+        <v>44</v>
+      </c>
+      <c r="D809">
+        <v>104</v>
+      </c>
+      <c r="F809">
+        <v>17832</v>
+      </c>
+      <c r="G809" t="s">
+        <v>61</v>
+      </c>
+      <c r="H809" t="s">
+        <v>21</v>
+      </c>
+      <c r="I809" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="810" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A810" t="s">
+        <v>27</v>
+      </c>
+      <c r="B810">
+        <v>86</v>
+      </c>
+      <c r="C810" t="s">
+        <v>11</v>
+      </c>
+      <c r="D810">
+        <v>136</v>
+      </c>
+      <c r="F810">
+        <v>17832</v>
+      </c>
+      <c r="G810" t="s">
+        <v>49</v>
+      </c>
+      <c r="H810" t="s">
+        <v>11</v>
+      </c>
+      <c r="I810" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="811" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A811" t="s">
+        <v>33</v>
+      </c>
+      <c r="B811">
+        <v>105</v>
+      </c>
+      <c r="C811" t="s">
+        <v>26</v>
+      </c>
+      <c r="D811">
+        <v>108</v>
+      </c>
+      <c r="F811">
+        <v>17832</v>
+      </c>
+      <c r="G811" t="s">
+        <v>48</v>
+      </c>
+      <c r="H811" t="s">
+        <v>26</v>
+      </c>
+      <c r="I811" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="812" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A812" t="s">
+        <v>15</v>
+      </c>
+      <c r="B812">
+        <v>127</v>
+      </c>
+      <c r="C812" t="s">
+        <v>24</v>
+      </c>
+      <c r="D812">
+        <v>125</v>
+      </c>
+      <c r="F812">
+        <v>17832</v>
+      </c>
+      <c r="G812" t="s">
+        <v>25</v>
+      </c>
+      <c r="H812" t="s">
+        <v>15</v>
+      </c>
+      <c r="I812" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="813" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A813" t="s">
+        <v>8</v>
+      </c>
+      <c r="B813">
+        <v>113</v>
+      </c>
+      <c r="C813" t="s">
+        <v>30</v>
+      </c>
+      <c r="D813">
+        <v>121</v>
+      </c>
+      <c r="F813">
+        <v>17832</v>
+      </c>
+      <c r="G813" t="s">
+        <v>31</v>
+      </c>
+      <c r="H813" t="s">
+        <v>30</v>
+      </c>
+      <c r="I813" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="814" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A814" t="s">
+        <v>14</v>
+      </c>
+      <c r="B814">
+        <v>126</v>
+      </c>
+      <c r="C814" t="s">
+        <v>29</v>
+      </c>
+      <c r="D814">
+        <v>133</v>
+      </c>
+      <c r="F814">
+        <v>17832</v>
+      </c>
+      <c r="G814" t="s">
+        <v>56</v>
+      </c>
+      <c r="H814" t="s">
+        <v>29</v>
+      </c>
+      <c r="I814" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="815" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A815" t="s">
+        <v>39</v>
+      </c>
+      <c r="B815">
+        <v>93</v>
+      </c>
+      <c r="C815" t="s">
+        <v>38</v>
+      </c>
+      <c r="D815">
+        <v>116</v>
+      </c>
+      <c r="F815">
+        <v>17832</v>
+      </c>
+      <c r="G815" t="s">
+        <v>51</v>
+      </c>
+      <c r="H815" t="s">
+        <v>38</v>
+      </c>
+      <c r="I815" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="816" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A816" t="s">
+        <v>35</v>
+      </c>
+      <c r="B816">
+        <v>102</v>
+      </c>
+      <c r="C816" t="s">
+        <v>3</v>
+      </c>
+      <c r="D816">
+        <v>98</v>
+      </c>
+      <c r="F816">
+        <v>17832</v>
+      </c>
+      <c r="G816" t="s">
+        <v>4</v>
+      </c>
+      <c r="H816" t="s">
+        <v>35</v>
+      </c>
+      <c r="I816" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="817" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A817" t="s">
+        <v>20</v>
+      </c>
+      <c r="B817">
+        <v>100</v>
+      </c>
+      <c r="C817" t="s">
+        <v>5</v>
+      </c>
+      <c r="D817">
+        <v>116</v>
+      </c>
+      <c r="F817">
+        <v>17832</v>
+      </c>
+      <c r="G817" t="s">
+        <v>58</v>
+      </c>
+      <c r="H817" t="s">
+        <v>5</v>
+      </c>
+      <c r="I817" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="818" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A818" t="s">
+        <v>2</v>
+      </c>
+      <c r="B818">
+        <v>138</v>
+      </c>
+      <c r="C818" t="s">
+        <v>36</v>
+      </c>
+      <c r="D818">
+        <v>122</v>
+      </c>
+      <c r="F818">
+        <v>17832</v>
+      </c>
+      <c r="G818" t="s">
+        <v>37</v>
+      </c>
+      <c r="H818" t="s">
+        <v>2</v>
+      </c>
+      <c r="I818" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="819" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A819" t="s">
+        <v>42</v>
+      </c>
+      <c r="B819">
+        <v>130</v>
+      </c>
+      <c r="C819" t="s">
+        <v>6</v>
+      </c>
+      <c r="D819">
+        <v>125</v>
+      </c>
+      <c r="F819">
+        <v>17832</v>
+      </c>
+      <c r="G819" t="s">
+        <v>7</v>
+      </c>
+      <c r="H819" t="s">
+        <v>42</v>
+      </c>
+      <c r="I819" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EE4977-7EA4-4D33-AED5-F26D34100049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB003D57-2B4E-4FEB-B868-7A7568DEDD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4904" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4935" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I819"/>
+  <dimension ref="A1:I822"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A787" workbookViewId="0">
-      <selection activeCell="F808" sqref="F808"/>
+    <sheetView tabSelected="1" topLeftCell="A791" workbookViewId="0">
+      <selection activeCell="A821" sqref="A821"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23997,6 +23997,9 @@
       <c r="D807">
         <v>122</v>
       </c>
+      <c r="E807" t="s">
+        <v>67</v>
+      </c>
       <c r="F807">
         <v>17832</v>
       </c>
@@ -24023,6 +24026,9 @@
       <c r="D808">
         <v>118</v>
       </c>
+      <c r="E808" t="s">
+        <v>67</v>
+      </c>
       <c r="F808">
         <v>17832</v>
       </c>
@@ -24049,6 +24055,9 @@
       <c r="D809">
         <v>104</v>
       </c>
+      <c r="E809" t="s">
+        <v>67</v>
+      </c>
       <c r="F809">
         <v>17832</v>
       </c>
@@ -24075,6 +24084,9 @@
       <c r="D810">
         <v>136</v>
       </c>
+      <c r="E810" t="s">
+        <v>67</v>
+      </c>
       <c r="F810">
         <v>17832</v>
       </c>
@@ -24101,6 +24113,9 @@
       <c r="D811">
         <v>108</v>
       </c>
+      <c r="E811" t="s">
+        <v>67</v>
+      </c>
       <c r="F811">
         <v>17832</v>
       </c>
@@ -24127,6 +24142,9 @@
       <c r="D812">
         <v>125</v>
       </c>
+      <c r="E812" t="s">
+        <v>67</v>
+      </c>
       <c r="F812">
         <v>17832</v>
       </c>
@@ -24153,6 +24171,9 @@
       <c r="D813">
         <v>121</v>
       </c>
+      <c r="E813" t="s">
+        <v>67</v>
+      </c>
       <c r="F813">
         <v>17832</v>
       </c>
@@ -24179,6 +24200,9 @@
       <c r="D814">
         <v>133</v>
       </c>
+      <c r="E814" t="s">
+        <v>67</v>
+      </c>
       <c r="F814">
         <v>17832</v>
       </c>
@@ -24205,6 +24229,9 @@
       <c r="D815">
         <v>116</v>
       </c>
+      <c r="E815" t="s">
+        <v>67</v>
+      </c>
       <c r="F815">
         <v>17832</v>
       </c>
@@ -24231,6 +24258,9 @@
       <c r="D816">
         <v>98</v>
       </c>
+      <c r="E816" t="s">
+        <v>67</v>
+      </c>
       <c r="F816">
         <v>17832</v>
       </c>
@@ -24257,6 +24287,9 @@
       <c r="D817">
         <v>116</v>
       </c>
+      <c r="E817" t="s">
+        <v>67</v>
+      </c>
       <c r="F817">
         <v>17832</v>
       </c>
@@ -24283,6 +24316,9 @@
       <c r="D818">
         <v>122</v>
       </c>
+      <c r="E818" t="s">
+        <v>67</v>
+      </c>
       <c r="F818">
         <v>17832</v>
       </c>
@@ -24309,6 +24345,9 @@
       <c r="D819">
         <v>125</v>
       </c>
+      <c r="E819" t="s">
+        <v>67</v>
+      </c>
       <c r="F819">
         <v>17832</v>
       </c>
@@ -24320,6 +24359,93 @@
       </c>
       <c r="I819" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="820" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A820" t="s">
+        <v>45</v>
+      </c>
+      <c r="B820">
+        <v>110</v>
+      </c>
+      <c r="C820" t="s">
+        <v>30</v>
+      </c>
+      <c r="D820">
+        <v>113</v>
+      </c>
+      <c r="E820" t="s">
+        <v>67</v>
+      </c>
+      <c r="F820">
+        <v>17832</v>
+      </c>
+      <c r="G820" t="s">
+        <v>31</v>
+      </c>
+      <c r="H820" t="s">
+        <v>30</v>
+      </c>
+      <c r="I820" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="821" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A821" t="s">
+        <v>6</v>
+      </c>
+      <c r="B821">
+        <v>140</v>
+      </c>
+      <c r="C821" t="s">
+        <v>36</v>
+      </c>
+      <c r="D821">
+        <v>137</v>
+      </c>
+      <c r="E821" t="s">
+        <v>67</v>
+      </c>
+      <c r="F821">
+        <v>17832</v>
+      </c>
+      <c r="G821" t="s">
+        <v>37</v>
+      </c>
+      <c r="H821" t="s">
+        <v>6</v>
+      </c>
+      <c r="I821" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="822" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A822" t="s">
+        <v>23</v>
+      </c>
+      <c r="B822">
+        <v>128</v>
+      </c>
+      <c r="C822" t="s">
+        <v>41</v>
+      </c>
+      <c r="D822">
+        <v>91</v>
+      </c>
+      <c r="E822" t="s">
+        <v>67</v>
+      </c>
+      <c r="F822">
+        <v>17832</v>
+      </c>
+      <c r="G822" t="s">
+        <v>52</v>
+      </c>
+      <c r="H822" t="s">
+        <v>23</v>
+      </c>
+      <c r="I822" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB003D57-2B4E-4FEB-B868-7A7568DEDD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E5949B-6771-4AC8-9391-1577688CCA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4935" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5007" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I822"/>
+  <dimension ref="A1:I834"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A791" workbookViewId="0">
-      <selection activeCell="A821" sqref="A821"/>
+    <sheetView tabSelected="1" topLeftCell="A803" workbookViewId="0">
+      <selection activeCell="A834" sqref="A834"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -24448,6 +24448,354 @@
         <v>41</v>
       </c>
     </row>
+    <row r="823" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A823" t="s">
+        <v>9</v>
+      </c>
+      <c r="B823">
+        <v>116</v>
+      </c>
+      <c r="C823" t="s">
+        <v>26</v>
+      </c>
+      <c r="D823">
+        <v>109</v>
+      </c>
+      <c r="E823" t="s">
+        <v>67</v>
+      </c>
+      <c r="F823">
+        <v>17832</v>
+      </c>
+      <c r="G823" t="s">
+        <v>48</v>
+      </c>
+      <c r="H823" t="s">
+        <v>9</v>
+      </c>
+      <c r="I823" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="824" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A824" t="s">
+        <v>20</v>
+      </c>
+      <c r="B824">
+        <v>115</v>
+      </c>
+      <c r="C824" t="s">
+        <v>15</v>
+      </c>
+      <c r="D824">
+        <v>129</v>
+      </c>
+      <c r="E824" t="s">
+        <v>67</v>
+      </c>
+      <c r="F824">
+        <v>17832</v>
+      </c>
+      <c r="G824" t="s">
+        <v>16</v>
+      </c>
+      <c r="H824" t="s">
+        <v>15</v>
+      </c>
+      <c r="I824" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="825" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A825" t="s">
+        <v>12</v>
+      </c>
+      <c r="B825">
+        <v>110</v>
+      </c>
+      <c r="C825" t="s">
+        <v>44</v>
+      </c>
+      <c r="D825">
+        <v>96</v>
+      </c>
+      <c r="E825" t="s">
+        <v>67</v>
+      </c>
+      <c r="F825">
+        <v>17832</v>
+      </c>
+      <c r="G825" t="s">
+        <v>61</v>
+      </c>
+      <c r="H825" t="s">
+        <v>12</v>
+      </c>
+      <c r="I825" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="826" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A826" t="s">
+        <v>27</v>
+      </c>
+      <c r="B826">
+        <v>93</v>
+      </c>
+      <c r="C826" t="s">
+        <v>24</v>
+      </c>
+      <c r="D826">
+        <v>121</v>
+      </c>
+      <c r="E826" t="s">
+        <v>67</v>
+      </c>
+      <c r="F826">
+        <v>17832</v>
+      </c>
+      <c r="G826" t="s">
+        <v>25</v>
+      </c>
+      <c r="H826" t="s">
+        <v>24</v>
+      </c>
+      <c r="I826" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="827" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A827" t="s">
+        <v>5</v>
+      </c>
+      <c r="B827">
+        <v>113</v>
+      </c>
+      <c r="C827" t="s">
+        <v>38</v>
+      </c>
+      <c r="D827">
+        <v>123</v>
+      </c>
+      <c r="E827" t="s">
+        <v>67</v>
+      </c>
+      <c r="F827">
+        <v>17832</v>
+      </c>
+      <c r="G827" t="s">
+        <v>51</v>
+      </c>
+      <c r="H827" t="s">
+        <v>38</v>
+      </c>
+      <c r="I827" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="828" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A828" t="s">
+        <v>11</v>
+      </c>
+      <c r="B828">
+        <v>129</v>
+      </c>
+      <c r="C828" t="s">
+        <v>33</v>
+      </c>
+      <c r="D828">
+        <v>112</v>
+      </c>
+      <c r="E828" t="s">
+        <v>67</v>
+      </c>
+      <c r="F828">
+        <v>17832</v>
+      </c>
+      <c r="G828" t="s">
+        <v>34</v>
+      </c>
+      <c r="H828" t="s">
+        <v>11</v>
+      </c>
+      <c r="I828" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="829" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A829" t="s">
+        <v>8</v>
+      </c>
+      <c r="B829">
+        <v>105</v>
+      </c>
+      <c r="C829" t="s">
+        <v>29</v>
+      </c>
+      <c r="D829">
+        <v>127</v>
+      </c>
+      <c r="E829" t="s">
+        <v>67</v>
+      </c>
+      <c r="F829">
+        <v>17832</v>
+      </c>
+      <c r="G829" t="s">
+        <v>56</v>
+      </c>
+      <c r="H829" t="s">
+        <v>29</v>
+      </c>
+      <c r="I829" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="830" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A830" t="s">
+        <v>42</v>
+      </c>
+      <c r="B830">
+        <v>107</v>
+      </c>
+      <c r="C830" t="s">
+        <v>32</v>
+      </c>
+      <c r="D830">
+        <v>129</v>
+      </c>
+      <c r="E830" t="s">
+        <v>67</v>
+      </c>
+      <c r="F830">
+        <v>17832</v>
+      </c>
+      <c r="G830" t="s">
+        <v>59</v>
+      </c>
+      <c r="H830" t="s">
+        <v>32</v>
+      </c>
+      <c r="I830" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="831" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A831" t="s">
+        <v>14</v>
+      </c>
+      <c r="B831">
+        <v>110</v>
+      </c>
+      <c r="C831" t="s">
+        <v>3</v>
+      </c>
+      <c r="D831">
+        <v>130</v>
+      </c>
+      <c r="E831" t="s">
+        <v>67</v>
+      </c>
+      <c r="F831">
+        <v>17832</v>
+      </c>
+      <c r="G831" t="s">
+        <v>4</v>
+      </c>
+      <c r="H831" t="s">
+        <v>3</v>
+      </c>
+      <c r="I831" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="832" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A832" t="s">
+        <v>18</v>
+      </c>
+      <c r="B832">
+        <v>115</v>
+      </c>
+      <c r="C832" t="s">
+        <v>36</v>
+      </c>
+      <c r="D832">
+        <v>107</v>
+      </c>
+      <c r="E832" t="s">
+        <v>67</v>
+      </c>
+      <c r="F832">
+        <v>17832</v>
+      </c>
+      <c r="G832" t="s">
+        <v>37</v>
+      </c>
+      <c r="H832" t="s">
+        <v>18</v>
+      </c>
+      <c r="I832" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="833" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A833" t="s">
+        <v>2</v>
+      </c>
+      <c r="B833">
+        <v>110</v>
+      </c>
+      <c r="C833" t="s">
+        <v>6</v>
+      </c>
+      <c r="D833">
+        <v>128</v>
+      </c>
+      <c r="E833" t="s">
+        <v>67</v>
+      </c>
+      <c r="F833">
+        <v>17832</v>
+      </c>
+      <c r="G833" t="s">
+        <v>7</v>
+      </c>
+      <c r="H833" t="s">
+        <v>6</v>
+      </c>
+      <c r="I833" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="834" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A834" t="s">
+        <v>39</v>
+      </c>
+      <c r="B834">
+        <v>122</v>
+      </c>
+      <c r="C834" t="s">
+        <v>35</v>
+      </c>
+      <c r="D834">
+        <v>127</v>
+      </c>
+      <c r="E834" t="s">
+        <v>67</v>
+      </c>
+      <c r="F834">
+        <v>17832</v>
+      </c>
+      <c r="G834" t="s">
+        <v>53</v>
+      </c>
+      <c r="H834" t="s">
+        <v>35</v>
+      </c>
+      <c r="I834" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E5949B-6771-4AC8-9391-1577688CCA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE3B44D-35C7-4CCE-9E1F-EFC4B7AA8971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5007" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5067" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I834"/>
+  <dimension ref="A1:I844"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A803" workbookViewId="0">
-      <selection activeCell="A834" sqref="A834"/>
+    <sheetView tabSelected="1" topLeftCell="A812" workbookViewId="0">
+      <selection activeCell="G835" sqref="G835"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -24796,6 +24796,296 @@
         <v>39</v>
       </c>
     </row>
+    <row r="835" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A835" t="s">
+        <v>24</v>
+      </c>
+      <c r="B835">
+        <v>123</v>
+      </c>
+      <c r="C835" t="s">
+        <v>17</v>
+      </c>
+      <c r="D835">
+        <v>121</v>
+      </c>
+      <c r="E835" t="s">
+        <v>67</v>
+      </c>
+      <c r="F835">
+        <v>17832</v>
+      </c>
+      <c r="G835" t="s">
+        <v>47</v>
+      </c>
+      <c r="H835" t="s">
+        <v>24</v>
+      </c>
+      <c r="I835" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="836" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A836" t="s">
+        <v>26</v>
+      </c>
+      <c r="B836">
+        <v>97</v>
+      </c>
+      <c r="C836" t="s">
+        <v>44</v>
+      </c>
+      <c r="D836">
+        <v>104</v>
+      </c>
+      <c r="E836" t="s">
+        <v>67</v>
+      </c>
+      <c r="F836">
+        <v>17832</v>
+      </c>
+      <c r="G836" t="s">
+        <v>61</v>
+      </c>
+      <c r="H836" t="s">
+        <v>44</v>
+      </c>
+      <c r="I836" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="837" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A837" t="s">
+        <v>5</v>
+      </c>
+      <c r="B837">
+        <v>110</v>
+      </c>
+      <c r="C837" t="s">
+        <v>8</v>
+      </c>
+      <c r="D837">
+        <v>114</v>
+      </c>
+      <c r="E837" t="s">
+        <v>67</v>
+      </c>
+      <c r="F837">
+        <v>17832</v>
+      </c>
+      <c r="G837" t="s">
+        <v>60</v>
+      </c>
+      <c r="H837" t="s">
+        <v>8</v>
+      </c>
+      <c r="I837" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="838" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A838" t="s">
+        <v>42</v>
+      </c>
+      <c r="B838">
+        <v>101</v>
+      </c>
+      <c r="C838" t="s">
+        <v>30</v>
+      </c>
+      <c r="D838">
+        <v>95</v>
+      </c>
+      <c r="E838" t="s">
+        <v>67</v>
+      </c>
+      <c r="F838">
+        <v>17832</v>
+      </c>
+      <c r="G838" t="s">
+        <v>31</v>
+      </c>
+      <c r="H838" t="s">
+        <v>42</v>
+      </c>
+      <c r="I838" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="839" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A839" t="s">
+        <v>21</v>
+      </c>
+      <c r="B839">
+        <v>106</v>
+      </c>
+      <c r="C839" t="s">
+        <v>29</v>
+      </c>
+      <c r="D839">
+        <v>95</v>
+      </c>
+      <c r="E839" t="s">
+        <v>67</v>
+      </c>
+      <c r="F839">
+        <v>17832</v>
+      </c>
+      <c r="G839" t="s">
+        <v>56</v>
+      </c>
+      <c r="H839" t="s">
+        <v>21</v>
+      </c>
+      <c r="I839" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="840" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A840" t="s">
+        <v>14</v>
+      </c>
+      <c r="B840">
+        <v>106</v>
+      </c>
+      <c r="C840" t="s">
+        <v>32</v>
+      </c>
+      <c r="D840">
+        <v>147</v>
+      </c>
+      <c r="E840" t="s">
+        <v>67</v>
+      </c>
+      <c r="F840">
+        <v>17832</v>
+      </c>
+      <c r="G840" t="s">
+        <v>59</v>
+      </c>
+      <c r="H840" t="s">
+        <v>32</v>
+      </c>
+      <c r="I840" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="841" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A841" t="s">
+        <v>18</v>
+      </c>
+      <c r="B841">
+        <v>84</v>
+      </c>
+      <c r="C841" t="s">
+        <v>6</v>
+      </c>
+      <c r="D841">
+        <v>97</v>
+      </c>
+      <c r="E841" t="s">
+        <v>67</v>
+      </c>
+      <c r="F841">
+        <v>17832</v>
+      </c>
+      <c r="G841" t="s">
+        <v>7</v>
+      </c>
+      <c r="H841" t="s">
+        <v>6</v>
+      </c>
+      <c r="I841" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="842" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A842" t="s">
+        <v>45</v>
+      </c>
+      <c r="B842">
+        <v>112</v>
+      </c>
+      <c r="C842" t="s">
+        <v>23</v>
+      </c>
+      <c r="D842">
+        <v>107</v>
+      </c>
+      <c r="E842" t="s">
+        <v>67</v>
+      </c>
+      <c r="F842">
+        <v>17832</v>
+      </c>
+      <c r="G842" t="s">
+        <v>57</v>
+      </c>
+      <c r="H842" t="s">
+        <v>45</v>
+      </c>
+      <c r="I842" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="843" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A843" t="s">
+        <v>3</v>
+      </c>
+      <c r="B843">
+        <v>127</v>
+      </c>
+      <c r="C843" t="s">
+        <v>41</v>
+      </c>
+      <c r="D843">
+        <v>112</v>
+      </c>
+      <c r="E843" t="s">
+        <v>67</v>
+      </c>
+      <c r="F843">
+        <v>17832</v>
+      </c>
+      <c r="G843" t="s">
+        <v>52</v>
+      </c>
+      <c r="H843" t="s">
+        <v>3</v>
+      </c>
+      <c r="I843" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="844" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A844" t="s">
+        <v>39</v>
+      </c>
+      <c r="B844">
+        <v>118</v>
+      </c>
+      <c r="C844" t="s">
+        <v>2</v>
+      </c>
+      <c r="D844">
+        <v>123</v>
+      </c>
+      <c r="E844" t="s">
+        <v>67</v>
+      </c>
+      <c r="F844">
+        <v>17832</v>
+      </c>
+      <c r="G844" t="s">
+        <v>43</v>
+      </c>
+      <c r="H844" t="s">
+        <v>2</v>
+      </c>
+      <c r="I844" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE3B44D-35C7-4CCE-9E1F-EFC4B7AA8971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5DE457-E810-4115-AC38-D61E5515BF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5067" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5085" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I844"/>
+  <dimension ref="A1:I847"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A812" workbookViewId="0">
-      <selection activeCell="G835" sqref="G835"/>
+    <sheetView tabSelected="1" topLeftCell="A815" workbookViewId="0">
+      <selection activeCell="G845" sqref="G845"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -25086,6 +25086,93 @@
         <v>39</v>
       </c>
     </row>
+    <row r="845" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A845" t="s">
+        <v>9</v>
+      </c>
+      <c r="B845">
+        <v>112</v>
+      </c>
+      <c r="C845" t="s">
+        <v>20</v>
+      </c>
+      <c r="D845">
+        <v>109</v>
+      </c>
+      <c r="E845" t="s">
+        <v>67</v>
+      </c>
+      <c r="F845">
+        <v>17832</v>
+      </c>
+      <c r="G845" t="s">
+        <v>54</v>
+      </c>
+      <c r="H845" t="s">
+        <v>9</v>
+      </c>
+      <c r="I845" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="846" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A846" t="s">
+        <v>11</v>
+      </c>
+      <c r="B846">
+        <v>116</v>
+      </c>
+      <c r="C846" t="s">
+        <v>12</v>
+      </c>
+      <c r="D846">
+        <v>102</v>
+      </c>
+      <c r="E846" t="s">
+        <v>67</v>
+      </c>
+      <c r="F846">
+        <v>17832</v>
+      </c>
+      <c r="G846" t="s">
+        <v>13</v>
+      </c>
+      <c r="H846" t="s">
+        <v>11</v>
+      </c>
+      <c r="I846" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="847" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A847" t="s">
+        <v>27</v>
+      </c>
+      <c r="B847">
+        <v>86</v>
+      </c>
+      <c r="C847" t="s">
+        <v>23</v>
+      </c>
+      <c r="D847">
+        <v>101</v>
+      </c>
+      <c r="E847" t="s">
+        <v>67</v>
+      </c>
+      <c r="F847">
+        <v>17832</v>
+      </c>
+      <c r="G847" t="s">
+        <v>57</v>
+      </c>
+      <c r="H847" t="s">
+        <v>23</v>
+      </c>
+      <c r="I847" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5DE457-E810-4115-AC38-D61E5515BF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809DFEAB-77DA-4CD8-A3EB-C6F62EA8A3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5085" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5151" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I847"/>
+  <dimension ref="A1:I858"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A815" workbookViewId="0">
-      <selection activeCell="G845" sqref="G845"/>
+    <sheetView tabSelected="1" topLeftCell="A829" workbookViewId="0">
+      <selection activeCell="A859" sqref="A859"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -25173,6 +25173,325 @@
         <v>27</v>
       </c>
     </row>
+    <row r="848" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A848" t="s">
+        <v>45</v>
+      </c>
+      <c r="B848">
+        <v>119</v>
+      </c>
+      <c r="C848" t="s">
+        <v>44</v>
+      </c>
+      <c r="D848">
+        <v>98</v>
+      </c>
+      <c r="E848" t="s">
+        <v>67</v>
+      </c>
+      <c r="F848">
+        <v>17832</v>
+      </c>
+      <c r="G848" t="s">
+        <v>61</v>
+      </c>
+      <c r="H848" t="s">
+        <v>45</v>
+      </c>
+      <c r="I848" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="849" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A849" t="s">
+        <v>2</v>
+      </c>
+      <c r="B849">
+        <v>113</v>
+      </c>
+      <c r="C849" t="s">
+        <v>5</v>
+      </c>
+      <c r="D849">
+        <v>123</v>
+      </c>
+      <c r="E849" t="s">
+        <v>67</v>
+      </c>
+      <c r="F849">
+        <v>17832</v>
+      </c>
+      <c r="G849" t="s">
+        <v>58</v>
+      </c>
+      <c r="H849" t="s">
+        <v>5</v>
+      </c>
+      <c r="I849" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="850" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A850" t="s">
+        <v>38</v>
+      </c>
+      <c r="B850">
+        <v>111</v>
+      </c>
+      <c r="C850" t="s">
+        <v>15</v>
+      </c>
+      <c r="D850">
+        <v>133</v>
+      </c>
+      <c r="E850" t="s">
+        <v>67</v>
+      </c>
+      <c r="F850">
+        <v>17832</v>
+      </c>
+      <c r="G850" t="s">
+        <v>16</v>
+      </c>
+      <c r="H850" t="s">
+        <v>15</v>
+      </c>
+      <c r="I850" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="851" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A851" t="s">
+        <v>26</v>
+      </c>
+      <c r="B851">
+        <v>114</v>
+      </c>
+      <c r="C851" t="s">
+        <v>14</v>
+      </c>
+      <c r="D851">
+        <v>105</v>
+      </c>
+      <c r="E851" t="s">
+        <v>67</v>
+      </c>
+      <c r="F851">
+        <v>17832</v>
+      </c>
+      <c r="G851" t="s">
+        <v>55</v>
+      </c>
+      <c r="H851" t="s">
+        <v>26</v>
+      </c>
+      <c r="I851" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="852" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A852" t="s">
+        <v>9</v>
+      </c>
+      <c r="B852">
+        <v>92</v>
+      </c>
+      <c r="C852" t="s">
+        <v>17</v>
+      </c>
+      <c r="D852">
+        <v>109</v>
+      </c>
+      <c r="E852" t="s">
+        <v>67</v>
+      </c>
+      <c r="F852">
+        <v>17832</v>
+      </c>
+      <c r="G852" t="s">
+        <v>47</v>
+      </c>
+      <c r="H852" t="s">
+        <v>17</v>
+      </c>
+      <c r="I852" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="853" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A853" t="s">
+        <v>3</v>
+      </c>
+      <c r="B853">
+        <v>119</v>
+      </c>
+      <c r="C853" t="s">
+        <v>6</v>
+      </c>
+      <c r="D853">
+        <v>103</v>
+      </c>
+      <c r="E853" t="s">
+        <v>67</v>
+      </c>
+      <c r="F853">
+        <v>17832</v>
+      </c>
+      <c r="G853" t="s">
+        <v>7</v>
+      </c>
+      <c r="H853" t="s">
+        <v>3</v>
+      </c>
+      <c r="I853" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="854" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A854" t="s">
+        <v>32</v>
+      </c>
+      <c r="B854">
+        <v>123</v>
+      </c>
+      <c r="C854" t="s">
+        <v>8</v>
+      </c>
+      <c r="D854">
+        <v>110</v>
+      </c>
+      <c r="E854" t="s">
+        <v>67</v>
+      </c>
+      <c r="F854">
+        <v>17832</v>
+      </c>
+      <c r="G854" t="s">
+        <v>60</v>
+      </c>
+      <c r="H854" t="s">
+        <v>32</v>
+      </c>
+      <c r="I854" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="855" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A855" t="s">
+        <v>33</v>
+      </c>
+      <c r="B855">
+        <v>114</v>
+      </c>
+      <c r="C855" t="s">
+        <v>29</v>
+      </c>
+      <c r="D855">
+        <v>106</v>
+      </c>
+      <c r="E855" t="s">
+        <v>67</v>
+      </c>
+      <c r="F855">
+        <v>17832</v>
+      </c>
+      <c r="G855" t="s">
+        <v>56</v>
+      </c>
+      <c r="H855" t="s">
+        <v>33</v>
+      </c>
+      <c r="I855" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="856" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A856" t="s">
+        <v>39</v>
+      </c>
+      <c r="B856">
+        <v>109</v>
+      </c>
+      <c r="C856" t="s">
+        <v>36</v>
+      </c>
+      <c r="D856">
+        <v>128</v>
+      </c>
+      <c r="E856" t="s">
+        <v>67</v>
+      </c>
+      <c r="F856">
+        <v>17832</v>
+      </c>
+      <c r="G856" t="s">
+        <v>37</v>
+      </c>
+      <c r="H856" t="s">
+        <v>36</v>
+      </c>
+      <c r="I856" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="857" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A857" t="s">
+        <v>18</v>
+      </c>
+      <c r="B857">
+        <v>93</v>
+      </c>
+      <c r="C857" t="s">
+        <v>41</v>
+      </c>
+      <c r="D857">
+        <v>80</v>
+      </c>
+      <c r="E857" t="s">
+        <v>67</v>
+      </c>
+      <c r="F857">
+        <v>17832</v>
+      </c>
+      <c r="G857" t="s">
+        <v>52</v>
+      </c>
+      <c r="H857" t="s">
+        <v>18</v>
+      </c>
+      <c r="I857" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="858" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A858" t="s">
+        <v>35</v>
+      </c>
+      <c r="B858">
+        <v>123</v>
+      </c>
+      <c r="C858" t="s">
+        <v>42</v>
+      </c>
+      <c r="D858">
+        <v>107</v>
+      </c>
+      <c r="E858" t="s">
+        <v>67</v>
+      </c>
+      <c r="F858">
+        <v>17832</v>
+      </c>
+      <c r="G858" t="s">
+        <v>43</v>
+      </c>
+      <c r="H858" t="s">
+        <v>35</v>
+      </c>
+      <c r="I858" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809DFEAB-77DA-4CD8-A3EB-C6F62EA8A3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C579D675-38CF-4C15-8293-0DDED4EA6D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5151" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5175" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I858"/>
+  <dimension ref="A1:I862"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A829" workbookViewId="0">
-      <selection activeCell="A859" sqref="A859"/>
+    <sheetView tabSelected="1" topLeftCell="A830" workbookViewId="0">
+      <selection activeCell="G859" sqref="G859"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -25492,6 +25492,122 @@
         <v>42</v>
       </c>
     </row>
+    <row r="859" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A859" t="s">
+        <v>24</v>
+      </c>
+      <c r="B859">
+        <v>130</v>
+      </c>
+      <c r="C859" t="s">
+        <v>15</v>
+      </c>
+      <c r="D859">
+        <v>122</v>
+      </c>
+      <c r="E859" t="s">
+        <v>67</v>
+      </c>
+      <c r="F859">
+        <v>17832</v>
+      </c>
+      <c r="G859" t="s">
+        <v>16</v>
+      </c>
+      <c r="H859" t="s">
+        <v>24</v>
+      </c>
+      <c r="I859" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="860" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A860" t="s">
+        <v>20</v>
+      </c>
+      <c r="B860">
+        <v>111</v>
+      </c>
+      <c r="C860" t="s">
+        <v>12</v>
+      </c>
+      <c r="D860">
+        <v>113</v>
+      </c>
+      <c r="E860" t="s">
+        <v>67</v>
+      </c>
+      <c r="F860">
+        <v>17832</v>
+      </c>
+      <c r="G860" t="s">
+        <v>13</v>
+      </c>
+      <c r="H860" t="s">
+        <v>12</v>
+      </c>
+      <c r="I860" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="861" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A861" t="s">
+        <v>27</v>
+      </c>
+      <c r="B861">
+        <v>111</v>
+      </c>
+      <c r="C861" t="s">
+        <v>30</v>
+      </c>
+      <c r="D861">
+        <v>86</v>
+      </c>
+      <c r="E861" t="s">
+        <v>67</v>
+      </c>
+      <c r="F861">
+        <v>17832</v>
+      </c>
+      <c r="G861" t="s">
+        <v>31</v>
+      </c>
+      <c r="H861" t="s">
+        <v>27</v>
+      </c>
+      <c r="I861" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="862" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A862" t="s">
+        <v>21</v>
+      </c>
+      <c r="B862">
+        <v>121</v>
+      </c>
+      <c r="C862" t="s">
+        <v>35</v>
+      </c>
+      <c r="D862">
+        <v>110</v>
+      </c>
+      <c r="E862" t="s">
+        <v>67</v>
+      </c>
+      <c r="F862">
+        <v>17832</v>
+      </c>
+      <c r="G862" t="s">
+        <v>53</v>
+      </c>
+      <c r="H862" t="s">
+        <v>21</v>
+      </c>
+      <c r="I862" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C579D675-38CF-4C15-8293-0DDED4EA6D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1F4791-2101-4917-AA48-33B0312D221C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5175" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5241" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I862"/>
+  <dimension ref="A1:I873"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A830" workbookViewId="0">
-      <selection activeCell="G859" sqref="G859"/>
+    <sheetView tabSelected="1" topLeftCell="A841" workbookViewId="0">
+      <selection activeCell="A873" sqref="A873"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -25608,6 +25608,325 @@
         <v>35</v>
       </c>
     </row>
+    <row r="863" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A863" t="s">
+        <v>38</v>
+      </c>
+      <c r="B863">
+        <v>119</v>
+      </c>
+      <c r="C863" t="s">
+        <v>26</v>
+      </c>
+      <c r="D863">
+        <v>121</v>
+      </c>
+      <c r="E863" t="s">
+        <v>67</v>
+      </c>
+      <c r="F863">
+        <v>17832</v>
+      </c>
+      <c r="G863" t="s">
+        <v>48</v>
+      </c>
+      <c r="H863" t="s">
+        <v>26</v>
+      </c>
+      <c r="I863" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="864" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A864" t="s">
+        <v>27</v>
+      </c>
+      <c r="B864">
+        <v>81</v>
+      </c>
+      <c r="C864" t="s">
+        <v>9</v>
+      </c>
+      <c r="D864">
+        <v>108</v>
+      </c>
+      <c r="E864" t="s">
+        <v>67</v>
+      </c>
+      <c r="F864">
+        <v>17832</v>
+      </c>
+      <c r="G864" t="s">
+        <v>10</v>
+      </c>
+      <c r="H864" t="s">
+        <v>9</v>
+      </c>
+      <c r="I864" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="865" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A865" t="s">
+        <v>6</v>
+      </c>
+      <c r="B865">
+        <v>123</v>
+      </c>
+      <c r="C865" t="s">
+        <v>14</v>
+      </c>
+      <c r="D865">
+        <v>112</v>
+      </c>
+      <c r="E865" t="s">
+        <v>67</v>
+      </c>
+      <c r="F865">
+        <v>17832</v>
+      </c>
+      <c r="G865" t="s">
+        <v>55</v>
+      </c>
+      <c r="H865" t="s">
+        <v>6</v>
+      </c>
+      <c r="I865" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="866" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A866" t="s">
+        <v>36</v>
+      </c>
+      <c r="B866">
+        <v>97</v>
+      </c>
+      <c r="C866" t="s">
+        <v>17</v>
+      </c>
+      <c r="D866">
+        <v>124</v>
+      </c>
+      <c r="E866" t="s">
+        <v>67</v>
+      </c>
+      <c r="F866">
+        <v>17832</v>
+      </c>
+      <c r="G866" t="s">
+        <v>47</v>
+      </c>
+      <c r="H866" t="s">
+        <v>17</v>
+      </c>
+      <c r="I866" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="867" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A867" t="s">
+        <v>44</v>
+      </c>
+      <c r="B867">
+        <v>99</v>
+      </c>
+      <c r="C867" t="s">
+        <v>11</v>
+      </c>
+      <c r="D867">
+        <v>117</v>
+      </c>
+      <c r="E867" t="s">
+        <v>67</v>
+      </c>
+      <c r="F867">
+        <v>17832</v>
+      </c>
+      <c r="G867" t="s">
+        <v>49</v>
+      </c>
+      <c r="H867" t="s">
+        <v>11</v>
+      </c>
+      <c r="I867" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="868" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A868" t="s">
+        <v>39</v>
+      </c>
+      <c r="B868">
+        <v>105</v>
+      </c>
+      <c r="C868" t="s">
+        <v>23</v>
+      </c>
+      <c r="D868">
+        <v>114</v>
+      </c>
+      <c r="E868" t="s">
+        <v>67</v>
+      </c>
+      <c r="F868">
+        <v>17832</v>
+      </c>
+      <c r="G868" t="s">
+        <v>57</v>
+      </c>
+      <c r="H868" t="s">
+        <v>23</v>
+      </c>
+      <c r="I868" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="869" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A869" t="s">
+        <v>29</v>
+      </c>
+      <c r="B869">
+        <v>115</v>
+      </c>
+      <c r="C869" t="s">
+        <v>12</v>
+      </c>
+      <c r="D869">
+        <v>92</v>
+      </c>
+      <c r="E869" t="s">
+        <v>67</v>
+      </c>
+      <c r="F869">
+        <v>17832</v>
+      </c>
+      <c r="G869" t="s">
+        <v>13</v>
+      </c>
+      <c r="H869" t="s">
+        <v>29</v>
+      </c>
+      <c r="I869" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="870" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A870" t="s">
+        <v>20</v>
+      </c>
+      <c r="B870">
+        <v>105</v>
+      </c>
+      <c r="C870" t="s">
+        <v>33</v>
+      </c>
+      <c r="D870">
+        <v>95</v>
+      </c>
+      <c r="E870" t="s">
+        <v>67</v>
+      </c>
+      <c r="F870">
+        <v>17832</v>
+      </c>
+      <c r="G870" t="s">
+        <v>34</v>
+      </c>
+      <c r="H870" t="s">
+        <v>20</v>
+      </c>
+      <c r="I870" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="871" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A871" t="s">
+        <v>18</v>
+      </c>
+      <c r="B871">
+        <v>85</v>
+      </c>
+      <c r="C871" t="s">
+        <v>45</v>
+      </c>
+      <c r="D871">
+        <v>123</v>
+      </c>
+      <c r="E871" t="s">
+        <v>67</v>
+      </c>
+      <c r="F871">
+        <v>17832</v>
+      </c>
+      <c r="G871" t="s">
+        <v>46</v>
+      </c>
+      <c r="H871" t="s">
+        <v>45</v>
+      </c>
+      <c r="I871" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="872" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A872" t="s">
+        <v>8</v>
+      </c>
+      <c r="B872">
+        <v>95</v>
+      </c>
+      <c r="C872" t="s">
+        <v>32</v>
+      </c>
+      <c r="D872">
+        <v>112</v>
+      </c>
+      <c r="E872" t="s">
+        <v>67</v>
+      </c>
+      <c r="F872">
+        <v>17832</v>
+      </c>
+      <c r="G872" t="s">
+        <v>59</v>
+      </c>
+      <c r="H872" t="s">
+        <v>32</v>
+      </c>
+      <c r="I872" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="873" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A873" t="s">
+        <v>21</v>
+      </c>
+      <c r="B873">
+        <v>106</v>
+      </c>
+      <c r="C873" t="s">
+        <v>41</v>
+      </c>
+      <c r="D873">
+        <v>96</v>
+      </c>
+      <c r="E873" t="s">
+        <v>67</v>
+      </c>
+      <c r="F873">
+        <v>17832</v>
+      </c>
+      <c r="G873" t="s">
+        <v>52</v>
+      </c>
+      <c r="H873" t="s">
+        <v>21</v>
+      </c>
+      <c r="I873" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1F4791-2101-4917-AA48-33B0312D221C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB90BD99-213A-4322-A908-A266DEAB0C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5241" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5277" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I873"/>
+  <dimension ref="A1:I879"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A841" workbookViewId="0">
-      <selection activeCell="A873" sqref="A873"/>
+    <sheetView tabSelected="1" topLeftCell="A856" workbookViewId="0">
+      <selection activeCell="E879" sqref="E879"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -25927,6 +25927,180 @@
         <v>41</v>
       </c>
     </row>
+    <row r="874" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A874" t="s">
+        <v>29</v>
+      </c>
+      <c r="B874">
+        <v>114</v>
+      </c>
+      <c r="C874" t="s">
+        <v>15</v>
+      </c>
+      <c r="D874">
+        <v>123</v>
+      </c>
+      <c r="E874" t="s">
+        <v>67</v>
+      </c>
+      <c r="F874">
+        <v>17832</v>
+      </c>
+      <c r="G874" t="s">
+        <v>16</v>
+      </c>
+      <c r="H874" t="s">
+        <v>15</v>
+      </c>
+      <c r="I874" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="875" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A875" t="s">
+        <v>30</v>
+      </c>
+      <c r="B875">
+        <v>101</v>
+      </c>
+      <c r="C875" t="s">
+        <v>23</v>
+      </c>
+      <c r="D875">
+        <v>110</v>
+      </c>
+      <c r="E875" t="s">
+        <v>67</v>
+      </c>
+      <c r="F875">
+        <v>17832</v>
+      </c>
+      <c r="G875" t="s">
+        <v>57</v>
+      </c>
+      <c r="H875" t="s">
+        <v>23</v>
+      </c>
+      <c r="I875" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="876" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A876" t="s">
+        <v>38</v>
+      </c>
+      <c r="B876">
+        <v>136</v>
+      </c>
+      <c r="C876" t="s">
+        <v>24</v>
+      </c>
+      <c r="D876">
+        <v>125</v>
+      </c>
+      <c r="E876" t="s">
+        <v>67</v>
+      </c>
+      <c r="F876">
+        <v>17832</v>
+      </c>
+      <c r="G876" t="s">
+        <v>25</v>
+      </c>
+      <c r="H876" t="s">
+        <v>38</v>
+      </c>
+      <c r="I876" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="877" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A877" t="s">
+        <v>26</v>
+      </c>
+      <c r="B877">
+        <v>123</v>
+      </c>
+      <c r="C877" t="s">
+        <v>33</v>
+      </c>
+      <c r="D877">
+        <v>132</v>
+      </c>
+      <c r="E877" t="s">
+        <v>63</v>
+      </c>
+      <c r="F877">
+        <v>17832</v>
+      </c>
+      <c r="G877" t="s">
+        <v>34</v>
+      </c>
+      <c r="H877" t="s">
+        <v>33</v>
+      </c>
+      <c r="I877" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="878" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A878" t="s">
+        <v>35</v>
+      </c>
+      <c r="B878">
+        <v>96</v>
+      </c>
+      <c r="C878" t="s">
+        <v>3</v>
+      </c>
+      <c r="D878">
+        <v>117</v>
+      </c>
+      <c r="E878" t="s">
+        <v>67</v>
+      </c>
+      <c r="F878">
+        <v>17832</v>
+      </c>
+      <c r="G878" t="s">
+        <v>4</v>
+      </c>
+      <c r="H878" t="s">
+        <v>3</v>
+      </c>
+      <c r="I878" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="879" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A879" t="s">
+        <v>2</v>
+      </c>
+      <c r="B879">
+        <v>116</v>
+      </c>
+      <c r="C879" t="s">
+        <v>42</v>
+      </c>
+      <c r="D879">
+        <v>112</v>
+      </c>
+      <c r="E879" t="s">
+        <v>67</v>
+      </c>
+      <c r="F879">
+        <v>17832</v>
+      </c>
+      <c r="G879" t="s">
+        <v>43</v>
+      </c>
+      <c r="H879" t="s">
+        <v>2</v>
+      </c>
+      <c r="I879" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB90BD99-213A-4322-A908-A266DEAB0C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9FF724-6856-4711-AA7A-958738563ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5277" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5325" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I879"/>
+  <dimension ref="A1:I887"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A856" workbookViewId="0">
-      <selection activeCell="E879" sqref="E879"/>
+      <selection activeCell="A887" sqref="A887"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26101,6 +26101,238 @@
         <v>42</v>
       </c>
     </row>
+    <row r="880" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A880" t="s">
+        <v>45</v>
+      </c>
+      <c r="B880" s="3">
+        <v>111</v>
+      </c>
+      <c r="C880" t="s">
+        <v>18</v>
+      </c>
+      <c r="D880" s="3">
+        <v>99</v>
+      </c>
+      <c r="E880" t="s">
+        <v>67</v>
+      </c>
+      <c r="F880">
+        <v>17832</v>
+      </c>
+      <c r="G880" t="s">
+        <v>19</v>
+      </c>
+      <c r="H880" t="s">
+        <v>45</v>
+      </c>
+      <c r="I880" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="881" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A881" t="s">
+        <v>36</v>
+      </c>
+      <c r="B881" s="3">
+        <v>107</v>
+      </c>
+      <c r="C881" t="s">
+        <v>9</v>
+      </c>
+      <c r="D881" s="3">
+        <v>115</v>
+      </c>
+      <c r="E881" t="s">
+        <v>67</v>
+      </c>
+      <c r="F881">
+        <v>17832</v>
+      </c>
+      <c r="G881" t="s">
+        <v>10</v>
+      </c>
+      <c r="H881" t="s">
+        <v>9</v>
+      </c>
+      <c r="I881" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="882" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A882" t="s">
+        <v>17</v>
+      </c>
+      <c r="B882" s="3">
+        <v>97</v>
+      </c>
+      <c r="C882" t="s">
+        <v>27</v>
+      </c>
+      <c r="D882" s="3">
+        <v>124</v>
+      </c>
+      <c r="E882" t="s">
+        <v>67</v>
+      </c>
+      <c r="F882">
+        <v>17832</v>
+      </c>
+      <c r="G882" t="s">
+        <v>28</v>
+      </c>
+      <c r="H882" t="s">
+        <v>27</v>
+      </c>
+      <c r="I882" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="883" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A883" t="s">
+        <v>6</v>
+      </c>
+      <c r="B883" s="3">
+        <v>110</v>
+      </c>
+      <c r="C883" t="s">
+        <v>12</v>
+      </c>
+      <c r="D883" s="3">
+        <v>99</v>
+      </c>
+      <c r="E883" t="s">
+        <v>67</v>
+      </c>
+      <c r="F883">
+        <v>17832</v>
+      </c>
+      <c r="G883" t="s">
+        <v>13</v>
+      </c>
+      <c r="H883" t="s">
+        <v>6</v>
+      </c>
+      <c r="I883" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="884" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A884" t="s">
+        <v>32</v>
+      </c>
+      <c r="B884" s="3">
+        <v>118</v>
+      </c>
+      <c r="C884" t="s">
+        <v>39</v>
+      </c>
+      <c r="D884" s="3">
+        <v>132</v>
+      </c>
+      <c r="E884" t="s">
+        <v>67</v>
+      </c>
+      <c r="F884">
+        <v>17832</v>
+      </c>
+      <c r="G884" t="s">
+        <v>40</v>
+      </c>
+      <c r="H884" t="s">
+        <v>39</v>
+      </c>
+      <c r="I884" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="885" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A885" t="s">
+        <v>8</v>
+      </c>
+      <c r="B885" s="3">
+        <v>105</v>
+      </c>
+      <c r="C885" t="s">
+        <v>5</v>
+      </c>
+      <c r="D885" s="3">
+        <v>110</v>
+      </c>
+      <c r="E885" t="s">
+        <v>67</v>
+      </c>
+      <c r="F885">
+        <v>17832</v>
+      </c>
+      <c r="G885" t="s">
+        <v>58</v>
+      </c>
+      <c r="H885" t="s">
+        <v>5</v>
+      </c>
+      <c r="I885" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="886" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A886" t="s">
+        <v>21</v>
+      </c>
+      <c r="B886" s="3">
+        <v>97</v>
+      </c>
+      <c r="C886" t="s">
+        <v>3</v>
+      </c>
+      <c r="D886" s="3">
+        <v>103</v>
+      </c>
+      <c r="E886" t="s">
+        <v>67</v>
+      </c>
+      <c r="F886">
+        <v>17832</v>
+      </c>
+      <c r="G886" t="s">
+        <v>4</v>
+      </c>
+      <c r="H886" t="s">
+        <v>3</v>
+      </c>
+      <c r="I886" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="887" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A887" t="s">
+        <v>14</v>
+      </c>
+      <c r="B887" s="3">
+        <v>131</v>
+      </c>
+      <c r="C887" t="s">
+        <v>2</v>
+      </c>
+      <c r="D887" s="3">
+        <v>134</v>
+      </c>
+      <c r="E887" t="s">
+        <v>74</v>
+      </c>
+      <c r="F887">
+        <v>17832</v>
+      </c>
+      <c r="G887" t="s">
+        <v>43</v>
+      </c>
+      <c r="H887" t="s">
+        <v>2</v>
+      </c>
+      <c r="I887" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9FF724-6856-4711-AA7A-958738563ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7318C64-99DC-493D-B880-2B3F3F416892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5325" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5379" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I887"/>
+  <dimension ref="A1:I896"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A856" workbookViewId="0">
-      <selection activeCell="A887" sqref="A887"/>
+    <sheetView tabSelected="1" topLeftCell="A865" workbookViewId="0">
+      <selection activeCell="D896" sqref="D896"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26318,7 +26318,7 @@
         <v>134</v>
       </c>
       <c r="E887" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F887">
         <v>17832</v>
@@ -26330,6 +26330,267 @@
         <v>2</v>
       </c>
       <c r="I887" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="888" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A888" t="s">
+        <v>26</v>
+      </c>
+      <c r="B888">
+        <v>110</v>
+      </c>
+      <c r="C888" t="s">
+        <v>20</v>
+      </c>
+      <c r="D888">
+        <v>100</v>
+      </c>
+      <c r="E888" t="s">
+        <v>67</v>
+      </c>
+      <c r="F888">
+        <v>17832</v>
+      </c>
+      <c r="G888" t="s">
+        <v>54</v>
+      </c>
+      <c r="H888" t="s">
+        <v>26</v>
+      </c>
+      <c r="I888" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="889" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A889" t="s">
+        <v>18</v>
+      </c>
+      <c r="B889">
+        <v>114</v>
+      </c>
+      <c r="C889" t="s">
+        <v>44</v>
+      </c>
+      <c r="D889">
+        <v>121</v>
+      </c>
+      <c r="E889" t="s">
+        <v>67</v>
+      </c>
+      <c r="F889">
+        <v>17832</v>
+      </c>
+      <c r="G889" t="s">
+        <v>61</v>
+      </c>
+      <c r="H889" t="s">
+        <v>44</v>
+      </c>
+      <c r="I889" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="890" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A890" t="s">
+        <v>38</v>
+      </c>
+      <c r="B890">
+        <v>110</v>
+      </c>
+      <c r="C890" t="s">
+        <v>11</v>
+      </c>
+      <c r="D890">
+        <v>138</v>
+      </c>
+      <c r="E890" t="s">
+        <v>67</v>
+      </c>
+      <c r="F890">
+        <v>17832</v>
+      </c>
+      <c r="G890" t="s">
+        <v>49</v>
+      </c>
+      <c r="H890" t="s">
+        <v>11</v>
+      </c>
+      <c r="I890" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="891" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A891" t="s">
+        <v>6</v>
+      </c>
+      <c r="B891">
+        <v>120</v>
+      </c>
+      <c r="C891" t="s">
+        <v>24</v>
+      </c>
+      <c r="D891">
+        <v>105</v>
+      </c>
+      <c r="E891" t="s">
+        <v>67</v>
+      </c>
+      <c r="F891">
+        <v>17832</v>
+      </c>
+      <c r="G891" t="s">
+        <v>25</v>
+      </c>
+      <c r="H891" t="s">
+        <v>6</v>
+      </c>
+      <c r="I891" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="892" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A892" t="s">
+        <v>41</v>
+      </c>
+      <c r="B892">
+        <v>122</v>
+      </c>
+      <c r="C892" t="s">
+        <v>30</v>
+      </c>
+      <c r="D892">
+        <v>92</v>
+      </c>
+      <c r="E892" t="s">
+        <v>67</v>
+      </c>
+      <c r="F892">
+        <v>17832</v>
+      </c>
+      <c r="G892" t="s">
+        <v>31</v>
+      </c>
+      <c r="H892" t="s">
+        <v>41</v>
+      </c>
+      <c r="I892" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="893" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A893" t="s">
+        <v>35</v>
+      </c>
+      <c r="B893">
+        <v>124</v>
+      </c>
+      <c r="C893" t="s">
+        <v>23</v>
+      </c>
+      <c r="D893">
+        <v>120</v>
+      </c>
+      <c r="E893" t="s">
+        <v>50</v>
+      </c>
+      <c r="F893">
+        <v>17832</v>
+      </c>
+      <c r="G893" t="s">
+        <v>57</v>
+      </c>
+      <c r="H893" t="s">
+        <v>35</v>
+      </c>
+      <c r="I893" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="894" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A894" t="s">
+        <v>15</v>
+      </c>
+      <c r="B894">
+        <v>102</v>
+      </c>
+      <c r="C894" t="s">
+        <v>29</v>
+      </c>
+      <c r="D894">
+        <v>129</v>
+      </c>
+      <c r="E894" t="s">
+        <v>67</v>
+      </c>
+      <c r="F894">
+        <v>17832</v>
+      </c>
+      <c r="G894" t="s">
+        <v>56</v>
+      </c>
+      <c r="H894" t="s">
+        <v>29</v>
+      </c>
+      <c r="I894" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="895" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A895" t="s">
+        <v>45</v>
+      </c>
+      <c r="B895">
+        <v>113</v>
+      </c>
+      <c r="C895" t="s">
+        <v>33</v>
+      </c>
+      <c r="D895">
+        <v>97</v>
+      </c>
+      <c r="E895" t="s">
+        <v>67</v>
+      </c>
+      <c r="F895">
+        <v>17832</v>
+      </c>
+      <c r="G895" t="s">
+        <v>34</v>
+      </c>
+      <c r="H895" t="s">
+        <v>45</v>
+      </c>
+      <c r="I895" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="896" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A896" t="s">
+        <v>14</v>
+      </c>
+      <c r="B896">
+        <v>115</v>
+      </c>
+      <c r="C896" t="s">
+        <v>42</v>
+      </c>
+      <c r="D896">
+        <v>140</v>
+      </c>
+      <c r="E896" t="s">
+        <v>67</v>
+      </c>
+      <c r="F896">
+        <v>17832</v>
+      </c>
+      <c r="G896" t="s">
+        <v>43</v>
+      </c>
+      <c r="H896" t="s">
+        <v>42</v>
+      </c>
+      <c r="I896" t="s">
         <v>14</v>
       </c>
     </row>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7318C64-99DC-493D-B880-2B3F3F416892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F08F45A-72DE-4B77-956C-40FAAC2EDE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -595,7 +595,7 @@
   <dimension ref="A1:I896"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A865" workbookViewId="0">
-      <selection activeCell="D896" sqref="D896"/>
+      <selection activeCell="A896" sqref="A896"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F08F45A-72DE-4B77-956C-40FAAC2EDE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499BA60B-C4FF-42E5-9368-3BC1FD9B84DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5379" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5457" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I896"/>
+  <dimension ref="A1:I909"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A865" workbookViewId="0">
-      <selection activeCell="A896" sqref="A896"/>
+    <sheetView tabSelected="1" topLeftCell="A877" workbookViewId="0">
+      <selection activeCell="G897" sqref="G897"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26594,6 +26594,383 @@
         <v>14</v>
       </c>
     </row>
+    <row r="897" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A897" t="s">
+        <v>17</v>
+      </c>
+      <c r="B897">
+        <v>102</v>
+      </c>
+      <c r="C897" t="s">
+        <v>27</v>
+      </c>
+      <c r="D897">
+        <v>114</v>
+      </c>
+      <c r="E897" t="s">
+        <v>67</v>
+      </c>
+      <c r="F897">
+        <v>17832</v>
+      </c>
+      <c r="G897" t="s">
+        <v>28</v>
+      </c>
+      <c r="H897" t="s">
+        <v>27</v>
+      </c>
+      <c r="I897" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="898" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A898" t="s">
+        <v>36</v>
+      </c>
+      <c r="B898">
+        <v>120</v>
+      </c>
+      <c r="C898" t="s">
+        <v>21</v>
+      </c>
+      <c r="D898">
+        <v>126</v>
+      </c>
+      <c r="E898" t="s">
+        <v>67</v>
+      </c>
+      <c r="F898">
+        <v>17832</v>
+      </c>
+      <c r="G898" t="s">
+        <v>22</v>
+      </c>
+      <c r="H898" t="s">
+        <v>21</v>
+      </c>
+      <c r="I898" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="899" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A899" t="s">
+        <v>41</v>
+      </c>
+      <c r="B899">
+        <v>107</v>
+      </c>
+      <c r="C899" t="s">
+        <v>30</v>
+      </c>
+      <c r="D899">
+        <v>100</v>
+      </c>
+      <c r="E899" t="s">
+        <v>50</v>
+      </c>
+      <c r="F899">
+        <v>17832</v>
+      </c>
+      <c r="G899" t="s">
+        <v>31</v>
+      </c>
+      <c r="H899" t="s">
+        <v>41</v>
+      </c>
+      <c r="I899" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="900" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A900" t="s">
+        <v>3</v>
+      </c>
+      <c r="B900">
+        <v>124</v>
+      </c>
+      <c r="C900" t="s">
+        <v>2</v>
+      </c>
+      <c r="D900">
+        <v>114</v>
+      </c>
+      <c r="E900" t="s">
+        <v>67</v>
+      </c>
+      <c r="F900">
+        <v>17832</v>
+      </c>
+      <c r="G900" t="s">
+        <v>43</v>
+      </c>
+      <c r="H900" t="s">
+        <v>3</v>
+      </c>
+      <c r="I900" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="901" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A901" t="s">
+        <v>8</v>
+      </c>
+      <c r="B901">
+        <v>118</v>
+      </c>
+      <c r="C901" t="s">
+        <v>5</v>
+      </c>
+      <c r="D901">
+        <v>109</v>
+      </c>
+      <c r="E901" t="s">
+        <v>67</v>
+      </c>
+      <c r="F901">
+        <v>17832</v>
+      </c>
+      <c r="G901" t="s">
+        <v>58</v>
+      </c>
+      <c r="H901" t="s">
+        <v>8</v>
+      </c>
+      <c r="I901" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="902" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A902" t="s">
+        <v>44</v>
+      </c>
+      <c r="B902">
+        <v>120</v>
+      </c>
+      <c r="C902" t="s">
+        <v>38</v>
+      </c>
+      <c r="D902">
+        <v>116</v>
+      </c>
+      <c r="E902" t="s">
+        <v>67</v>
+      </c>
+      <c r="F902">
+        <v>17832</v>
+      </c>
+      <c r="G902" t="s">
+        <v>51</v>
+      </c>
+      <c r="H902" t="s">
+        <v>44</v>
+      </c>
+      <c r="I902" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="903" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A903" t="s">
+        <v>6</v>
+      </c>
+      <c r="B903">
+        <v>88</v>
+      </c>
+      <c r="C903" t="s">
+        <v>11</v>
+      </c>
+      <c r="D903">
+        <v>140</v>
+      </c>
+      <c r="E903" t="s">
+        <v>67</v>
+      </c>
+      <c r="F903">
+        <v>17832</v>
+      </c>
+      <c r="G903" t="s">
+        <v>49</v>
+      </c>
+      <c r="H903" t="s">
+        <v>11</v>
+      </c>
+      <c r="I903" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="904" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A904" t="s">
+        <v>42</v>
+      </c>
+      <c r="B904">
+        <v>89</v>
+      </c>
+      <c r="C904" t="s">
+        <v>23</v>
+      </c>
+      <c r="D904">
+        <v>88</v>
+      </c>
+      <c r="E904" t="s">
+        <v>67</v>
+      </c>
+      <c r="F904">
+        <v>17832</v>
+      </c>
+      <c r="G904" t="s">
+        <v>57</v>
+      </c>
+      <c r="H904" t="s">
+        <v>42</v>
+      </c>
+      <c r="I904" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="905" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A905" t="s">
+        <v>20</v>
+      </c>
+      <c r="B905">
+        <v>91</v>
+      </c>
+      <c r="C905" t="s">
+        <v>9</v>
+      </c>
+      <c r="D905">
+        <v>113</v>
+      </c>
+      <c r="E905" t="s">
+        <v>67</v>
+      </c>
+      <c r="F905">
+        <v>17832</v>
+      </c>
+      <c r="G905" t="s">
+        <v>10</v>
+      </c>
+      <c r="H905" t="s">
+        <v>9</v>
+      </c>
+      <c r="I905" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="906" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A906" t="s">
+        <v>18</v>
+      </c>
+      <c r="B906">
+        <v>106</v>
+      </c>
+      <c r="C906" t="s">
+        <v>24</v>
+      </c>
+      <c r="D906">
+        <v>111</v>
+      </c>
+      <c r="E906" t="s">
+        <v>67</v>
+      </c>
+      <c r="F906">
+        <v>17832</v>
+      </c>
+      <c r="G906" t="s">
+        <v>25</v>
+      </c>
+      <c r="H906" t="s">
+        <v>24</v>
+      </c>
+      <c r="I906" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="907" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A907" t="s">
+        <v>12</v>
+      </c>
+      <c r="B907">
+        <v>107</v>
+      </c>
+      <c r="C907" t="s">
+        <v>26</v>
+      </c>
+      <c r="D907">
+        <v>98</v>
+      </c>
+      <c r="E907" t="s">
+        <v>67</v>
+      </c>
+      <c r="F907">
+        <v>17832</v>
+      </c>
+      <c r="G907" t="s">
+        <v>48</v>
+      </c>
+      <c r="H907" t="s">
+        <v>12</v>
+      </c>
+      <c r="I907" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="908" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A908" t="s">
+        <v>15</v>
+      </c>
+      <c r="B908">
+        <v>105</v>
+      </c>
+      <c r="C908" t="s">
+        <v>39</v>
+      </c>
+      <c r="D908">
+        <v>117</v>
+      </c>
+      <c r="E908" t="s">
+        <v>67</v>
+      </c>
+      <c r="F908">
+        <v>17832</v>
+      </c>
+      <c r="G908" t="s">
+        <v>40</v>
+      </c>
+      <c r="H908" t="s">
+        <v>39</v>
+      </c>
+      <c r="I908" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="909" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A909" t="s">
+        <v>32</v>
+      </c>
+      <c r="B909">
+        <v>118</v>
+      </c>
+      <c r="C909" t="s">
+        <v>5</v>
+      </c>
+      <c r="D909">
+        <v>110</v>
+      </c>
+      <c r="E909" t="s">
+        <v>67</v>
+      </c>
+      <c r="F909">
+        <v>17832</v>
+      </c>
+      <c r="G909" t="s">
+        <v>58</v>
+      </c>
+      <c r="H909" t="s">
+        <v>32</v>
+      </c>
+      <c r="I909" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499BA60B-C4FF-42E5-9368-3BC1FD9B84DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A845278-496A-4F82-8534-D7EED5C9FE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5457" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5493" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I909"/>
+  <dimension ref="A1:I915"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A877" workbookViewId="0">
-      <selection activeCell="G897" sqref="G897"/>
+    <sheetView tabSelected="1" topLeftCell="A883" workbookViewId="0">
+      <selection activeCell="A915" sqref="A915"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26971,6 +26971,180 @@
         <v>5</v>
       </c>
     </row>
+    <row r="910" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A910" t="s">
+        <v>30</v>
+      </c>
+      <c r="B910">
+        <v>106</v>
+      </c>
+      <c r="C910" t="s">
+        <v>27</v>
+      </c>
+      <c r="D910">
+        <v>102</v>
+      </c>
+      <c r="E910" t="s">
+        <v>67</v>
+      </c>
+      <c r="F910">
+        <v>17832</v>
+      </c>
+      <c r="G910" t="s">
+        <v>28</v>
+      </c>
+      <c r="H910" t="s">
+        <v>30</v>
+      </c>
+      <c r="I910" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="911" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A911" t="s">
+        <v>42</v>
+      </c>
+      <c r="B911">
+        <v>106</v>
+      </c>
+      <c r="C911" t="s">
+        <v>45</v>
+      </c>
+      <c r="D911">
+        <v>113</v>
+      </c>
+      <c r="E911" t="s">
+        <v>67</v>
+      </c>
+      <c r="F911">
+        <v>17832</v>
+      </c>
+      <c r="G911" t="s">
+        <v>46</v>
+      </c>
+      <c r="H911" t="s">
+        <v>45</v>
+      </c>
+      <c r="I911" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="912" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A912" t="s">
+        <v>41</v>
+      </c>
+      <c r="B912">
+        <v>114</v>
+      </c>
+      <c r="C912" t="s">
+        <v>23</v>
+      </c>
+      <c r="D912">
+        <v>119</v>
+      </c>
+      <c r="E912" t="s">
+        <v>67</v>
+      </c>
+      <c r="F912">
+        <v>17832</v>
+      </c>
+      <c r="G912" t="s">
+        <v>57</v>
+      </c>
+      <c r="H912" t="s">
+        <v>23</v>
+      </c>
+      <c r="I912" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="913" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A913" t="s">
+        <v>14</v>
+      </c>
+      <c r="B913">
+        <v>115</v>
+      </c>
+      <c r="C913" t="s">
+        <v>36</v>
+      </c>
+      <c r="D913">
+        <v>127</v>
+      </c>
+      <c r="E913" t="s">
+        <v>67</v>
+      </c>
+      <c r="F913">
+        <v>17832</v>
+      </c>
+      <c r="G913" t="s">
+        <v>37</v>
+      </c>
+      <c r="H913" t="s">
+        <v>36</v>
+      </c>
+      <c r="I913" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="914" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A914" t="s">
+        <v>33</v>
+      </c>
+      <c r="B914">
+        <v>113</v>
+      </c>
+      <c r="C914" t="s">
+        <v>35</v>
+      </c>
+      <c r="D914">
+        <v>109</v>
+      </c>
+      <c r="E914" t="s">
+        <v>67</v>
+      </c>
+      <c r="F914">
+        <v>17832</v>
+      </c>
+      <c r="G914" t="s">
+        <v>53</v>
+      </c>
+      <c r="H914" t="s">
+        <v>33</v>
+      </c>
+      <c r="I914" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="915" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A915" t="s">
+        <v>32</v>
+      </c>
+      <c r="B915">
+        <v>104</v>
+      </c>
+      <c r="C915" t="s">
+        <v>2</v>
+      </c>
+      <c r="D915">
+        <v>116</v>
+      </c>
+      <c r="E915" t="s">
+        <v>67</v>
+      </c>
+      <c r="F915">
+        <v>17832</v>
+      </c>
+      <c r="G915" t="s">
+        <v>43</v>
+      </c>
+      <c r="H915" t="s">
+        <v>2</v>
+      </c>
+      <c r="I915" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A845278-496A-4F82-8534-D7EED5C9FE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86888088-9412-4FA6-889B-3299C644745D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5493" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5547" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I915"/>
+  <dimension ref="A1:I924"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A883" workbookViewId="0">
-      <selection activeCell="A915" sqref="A915"/>
+    <sheetView tabSelected="1" topLeftCell="A892" workbookViewId="0">
+      <selection activeCell="H916" sqref="H916"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -27145,6 +27145,267 @@
         <v>32</v>
       </c>
     </row>
+    <row r="916" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A916" t="s">
+        <v>9</v>
+      </c>
+      <c r="B916">
+        <v>101</v>
+      </c>
+      <c r="C916" t="s">
+        <v>18</v>
+      </c>
+      <c r="D916">
+        <v>89</v>
+      </c>
+      <c r="E916" t="s">
+        <v>67</v>
+      </c>
+      <c r="F916">
+        <v>17832</v>
+      </c>
+      <c r="G916" t="s">
+        <v>19</v>
+      </c>
+      <c r="H916" t="s">
+        <v>9</v>
+      </c>
+      <c r="I916" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="917" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A917" t="s">
+        <v>44</v>
+      </c>
+      <c r="B917">
+        <v>107</v>
+      </c>
+      <c r="C917" t="s">
+        <v>27</v>
+      </c>
+      <c r="D917">
+        <v>112</v>
+      </c>
+      <c r="E917" t="s">
+        <v>67</v>
+      </c>
+      <c r="F917">
+        <v>17832</v>
+      </c>
+      <c r="G917" t="s">
+        <v>28</v>
+      </c>
+      <c r="H917" t="s">
+        <v>27</v>
+      </c>
+      <c r="I917" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="918" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A918" t="s">
+        <v>11</v>
+      </c>
+      <c r="B918">
+        <v>104</v>
+      </c>
+      <c r="C918" t="s">
+        <v>26</v>
+      </c>
+      <c r="D918">
+        <v>105</v>
+      </c>
+      <c r="E918" t="s">
+        <v>67</v>
+      </c>
+      <c r="F918">
+        <v>17832</v>
+      </c>
+      <c r="G918" t="s">
+        <v>48</v>
+      </c>
+      <c r="H918" t="s">
+        <v>26</v>
+      </c>
+      <c r="I918" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="919" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A919" t="s">
+        <v>20</v>
+      </c>
+      <c r="B919">
+        <v>110</v>
+      </c>
+      <c r="C919" t="s">
+        <v>21</v>
+      </c>
+      <c r="D919">
+        <v>118</v>
+      </c>
+      <c r="E919" t="s">
+        <v>67</v>
+      </c>
+      <c r="F919">
+        <v>17832</v>
+      </c>
+      <c r="G919" t="s">
+        <v>22</v>
+      </c>
+      <c r="H919" t="s">
+        <v>21</v>
+      </c>
+      <c r="I919" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="920" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A920" t="s">
+        <v>17</v>
+      </c>
+      <c r="B920">
+        <v>116</v>
+      </c>
+      <c r="C920" t="s">
+        <v>12</v>
+      </c>
+      <c r="D920">
+        <v>100</v>
+      </c>
+      <c r="E920" t="s">
+        <v>67</v>
+      </c>
+      <c r="F920">
+        <v>17832</v>
+      </c>
+      <c r="G920" t="s">
+        <v>13</v>
+      </c>
+      <c r="H920" t="s">
+        <v>17</v>
+      </c>
+      <c r="I920" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="921" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A921" t="s">
+        <v>29</v>
+      </c>
+      <c r="B921">
+        <v>139</v>
+      </c>
+      <c r="C921" t="s">
+        <v>24</v>
+      </c>
+      <c r="D921">
+        <v>98</v>
+      </c>
+      <c r="E921" t="s">
+        <v>67</v>
+      </c>
+      <c r="F921">
+        <v>17832</v>
+      </c>
+      <c r="G921" t="s">
+        <v>25</v>
+      </c>
+      <c r="H921" t="s">
+        <v>29</v>
+      </c>
+      <c r="I921" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="922" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A922" t="s">
+        <v>39</v>
+      </c>
+      <c r="B922">
+        <v>101</v>
+      </c>
+      <c r="C922" t="s">
+        <v>8</v>
+      </c>
+      <c r="D922">
+        <v>114</v>
+      </c>
+      <c r="E922" t="s">
+        <v>67</v>
+      </c>
+      <c r="F922">
+        <v>17832</v>
+      </c>
+      <c r="G922" t="s">
+        <v>60</v>
+      </c>
+      <c r="H922" t="s">
+        <v>8</v>
+      </c>
+      <c r="I922" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="923" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A923" t="s">
+        <v>15</v>
+      </c>
+      <c r="B923">
+        <v>137</v>
+      </c>
+      <c r="C923" t="s">
+        <v>38</v>
+      </c>
+      <c r="D923">
+        <v>120</v>
+      </c>
+      <c r="E923" t="s">
+        <v>67</v>
+      </c>
+      <c r="F923">
+        <v>17832</v>
+      </c>
+      <c r="G923" t="s">
+        <v>51</v>
+      </c>
+      <c r="H923" t="s">
+        <v>15</v>
+      </c>
+      <c r="I923" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="924" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A924" t="s">
+        <v>5</v>
+      </c>
+      <c r="B924">
+        <v>117</v>
+      </c>
+      <c r="C924" t="s">
+        <v>3</v>
+      </c>
+      <c r="D924">
+        <v>107</v>
+      </c>
+      <c r="E924" t="s">
+        <v>50</v>
+      </c>
+      <c r="F924">
+        <v>17832</v>
+      </c>
+      <c r="G924" t="s">
+        <v>4</v>
+      </c>
+      <c r="H924" t="s">
+        <v>5</v>
+      </c>
+      <c r="I924" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86888088-9412-4FA6-889B-3299C644745D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990AACC8-7B5F-4770-8DA8-24ADA6D48384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5547" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5595" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I924"/>
+  <dimension ref="A1:I932"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A892" workbookViewId="0">
-      <selection activeCell="H916" sqref="H916"/>
+    <sheetView tabSelected="1" topLeftCell="A900" workbookViewId="0">
+      <selection activeCell="G925" sqref="G925"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -27406,6 +27406,238 @@
         <v>3</v>
       </c>
     </row>
+    <row r="925" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A925" t="s">
+        <v>9</v>
+      </c>
+      <c r="B925">
+        <v>119</v>
+      </c>
+      <c r="C925" t="s">
+        <v>14</v>
+      </c>
+      <c r="D925">
+        <v>109</v>
+      </c>
+      <c r="E925" t="s">
+        <v>67</v>
+      </c>
+      <c r="F925">
+        <v>17832</v>
+      </c>
+      <c r="G925" t="s">
+        <v>55</v>
+      </c>
+      <c r="H925" t="s">
+        <v>9</v>
+      </c>
+      <c r="I925" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="926" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A926" t="s">
+        <v>26</v>
+      </c>
+      <c r="B926">
+        <v>101</v>
+      </c>
+      <c r="C926" t="s">
+        <v>17</v>
+      </c>
+      <c r="D926">
+        <v>112</v>
+      </c>
+      <c r="E926" t="s">
+        <v>67</v>
+      </c>
+      <c r="F926">
+        <v>17832</v>
+      </c>
+      <c r="G926" t="s">
+        <v>47</v>
+      </c>
+      <c r="H926" t="s">
+        <v>17</v>
+      </c>
+      <c r="I926" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="927" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A927" t="s">
+        <v>42</v>
+      </c>
+      <c r="B927">
+        <v>122</v>
+      </c>
+      <c r="C927" t="s">
+        <v>8</v>
+      </c>
+      <c r="D927">
+        <v>116</v>
+      </c>
+      <c r="E927" t="s">
+        <v>67</v>
+      </c>
+      <c r="F927">
+        <v>17832</v>
+      </c>
+      <c r="G927" t="s">
+        <v>60</v>
+      </c>
+      <c r="H927" t="s">
+        <v>42</v>
+      </c>
+      <c r="I927" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="928" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A928" t="s">
+        <v>30</v>
+      </c>
+      <c r="B928">
+        <v>115</v>
+      </c>
+      <c r="C928" t="s">
+        <v>44</v>
+      </c>
+      <c r="D928">
+        <v>109</v>
+      </c>
+      <c r="E928" t="s">
+        <v>67</v>
+      </c>
+      <c r="F928">
+        <v>17832</v>
+      </c>
+      <c r="G928" t="s">
+        <v>61</v>
+      </c>
+      <c r="H928" t="s">
+        <v>30</v>
+      </c>
+      <c r="I928" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="929" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A929" t="s">
+        <v>33</v>
+      </c>
+      <c r="B929">
+        <v>119</v>
+      </c>
+      <c r="C929" t="s">
+        <v>36</v>
+      </c>
+      <c r="D929">
+        <v>117</v>
+      </c>
+      <c r="E929" t="s">
+        <v>67</v>
+      </c>
+      <c r="F929">
+        <v>17832</v>
+      </c>
+      <c r="G929" t="s">
+        <v>37</v>
+      </c>
+      <c r="H929" t="s">
+        <v>33</v>
+      </c>
+      <c r="I929" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="930" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A930" t="s">
+        <v>45</v>
+      </c>
+      <c r="B930">
+        <v>90</v>
+      </c>
+      <c r="C930" t="s">
+        <v>6</v>
+      </c>
+      <c r="D930">
+        <v>125</v>
+      </c>
+      <c r="E930" t="s">
+        <v>67</v>
+      </c>
+      <c r="F930">
+        <v>17832</v>
+      </c>
+      <c r="G930" t="s">
+        <v>7</v>
+      </c>
+      <c r="H930" t="s">
+        <v>6</v>
+      </c>
+      <c r="I930" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="931" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A931" t="s">
+        <v>32</v>
+      </c>
+      <c r="B931">
+        <v>128</v>
+      </c>
+      <c r="C931" t="s">
+        <v>41</v>
+      </c>
+      <c r="D931">
+        <v>120</v>
+      </c>
+      <c r="E931" t="s">
+        <v>67</v>
+      </c>
+      <c r="F931">
+        <v>17832</v>
+      </c>
+      <c r="G931" t="s">
+        <v>52</v>
+      </c>
+      <c r="H931" t="s">
+        <v>32</v>
+      </c>
+      <c r="I931" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="932" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A932" t="s">
+        <v>35</v>
+      </c>
+      <c r="B932">
+        <v>130</v>
+      </c>
+      <c r="C932" t="s">
+        <v>2</v>
+      </c>
+      <c r="D932">
+        <v>120</v>
+      </c>
+      <c r="E932" t="s">
+        <v>67</v>
+      </c>
+      <c r="F932">
+        <v>17832</v>
+      </c>
+      <c r="G932" t="s">
+        <v>43</v>
+      </c>
+      <c r="H932" t="s">
+        <v>35</v>
+      </c>
+      <c r="I932" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NBA2324.xlsx
+++ b/NBA2324.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990AACC8-7B5F-4770-8DA8-24ADA6D48384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEBE9BC-B085-4523-B698-9FCF5A2E532F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5595" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5685" uniqueCount="75">
   <si>
     <t>Attend.</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I932"/>
+  <dimension ref="A1:I947"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A900" workbookViewId="0">
-      <selection activeCell="G925" sqref="G925"/>
+    <sheetView tabSelected="1" topLeftCell="A916" workbookViewId="0">
+      <selection activeCell="A947" sqref="A947"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -27638,6 +27638,441 @@
         <v>2</v>
       </c>
     </row>
+    <row r="933" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A933" t="s">
+        <v>27</v>
+      </c>
+      <c r="B933">
+        <v>112</v>
+      </c>
+      <c r="C933" t="s">
+        <v>20</v>
+      </c>
+      <c r="D933">
+        <v>118</v>
+      </c>
+      <c r="E933" t="s">
+        <v>67</v>
+      </c>
+      <c r="F933">
+        <v>17832</v>
+      </c>
+      <c r="G933" t="s">
+        <v>54</v>
+      </c>
+      <c r="H933" t="s">
+        <v>20</v>
+      </c>
+      <c r="I933" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="934" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A934" t="s">
+        <v>23</v>
+      </c>
+      <c r="B934">
+        <v>113</v>
+      </c>
+      <c r="C934" t="s">
+        <v>15</v>
+      </c>
+      <c r="D934">
+        <v>111</v>
+      </c>
+      <c r="E934" t="s">
+        <v>67</v>
+      </c>
+      <c r="F934">
+        <v>17832</v>
+      </c>
+      <c r="G934" t="s">
+        <v>16</v>
+      </c>
+      <c r="H934" t="s">
+        <v>23</v>
+      </c>
+      <c r="I934" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="935" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A935" t="s">
+        <v>21</v>
+      </c>
+      <c r="B935">
+        <v>108</v>
+      </c>
+      <c r="C935" t="s">
+        <v>38</v>
+      </c>
+      <c r="D935">
+        <v>114</v>
+      </c>
+      <c r="E935" t="s">
+        <v>67</v>
+      </c>
+      <c r="F935">
+        <v>17832</v>
+      </c>
+      <c r="G935" t="s">
+        <v>51</v>
+      </c>
+      <c r="H935" t="s">
+        <v>38</v>
+      </c>
+      <c r="I935" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="936" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A936" t="s">
+        <v>24</v>
+      </c>
+      <c r="B936">
+        <v>113</v>
+      </c>
+      <c r="C936" t="s">
+        <v>5</v>
+      </c>
+      <c r="D936">
+        <v>120</v>
+      </c>
+      <c r="E936" t="s">
+        <v>67</v>
+      </c>
+      <c r="F936">
+        <v>17832</v>
+      </c>
+      <c r="G936" t="s">
+        <v>58</v>
+      </c>
+      <c r="H936" t="s">
+        <v>5</v>
+      </c>
+      <c r="I936" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="937" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A937" t="s">
+        <v>11</v>
+      </c>
+      <c r="B937">
+        <v>109</v>
+      </c>
+      <c r="C937" t="s">
+        <v>3</v>
+      </c>
+      <c r="D937">
+        <v>115</v>
+      </c>
+      <c r="E937" t="s">
+        <v>67</v>
+      </c>
+      <c r="F937">
+        <v>17832</v>
+      </c>
+      <c r="G937" t="s">
+        <v>4</v>
+      </c>
+      <c r="H937" t="s">
+        <v>3</v>
+      </c>
+      <c r="I937" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="938" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A938" t="s">
+        <v>33</v>
+      </c>
+      <c r="B938">
+        <v>125</v>
+      </c>
+      <c r="C938" t="s">
+        <v>6</v>
+      </c>
+      <c r="D938">
+        <v>122</v>
+      </c>
+      <c r="E938" t="s">
+        <v>67</v>
+      </c>
+      <c r="F938">
+        <v>17832</v>
+      </c>
+      <c r="G938" t="s">
+        <v>7</v>
+      </c>
+      <c r="H938" t="s">
+        <v>33</v>
+      </c>
+      <c r="I938" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="939" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A939" t="s">
+        <v>39</v>
+      </c>
+      <c r="B939">
+        <v>129</v>
+      </c>
+      <c r="C939" t="s">
+        <v>35</v>
+      </c>
+      <c r="D939">
+        <v>131</v>
+      </c>
+      <c r="E939" t="s">
+        <v>67</v>
+      </c>
+      <c r="F939">
+        <v>17832</v>
+      </c>
+      <c r="G939" t="s">
+        <v>53</v>
+      </c>
+      <c r="H939" t="s">
+        <v>35</v>
+      </c>
+      <c r="I939" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="940" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A940" t="s">
+        <v>29</v>
+      </c>
+      <c r="B940">
+        <v>103</v>
+      </c>
+      <c r="C940" t="s">
+        <v>44</v>
+      </c>
+      <c r="D940">
+        <v>95</v>
+      </c>
+      <c r="E940" t="s">
+        <v>67</v>
+      </c>
+      <c r="F940">
+        <v>17832</v>
+      </c>
+      <c r="G940" t="s">
+        <v>61</v>
+      </c>
+      <c r="H940" t="s">
+        <v>29</v>
+      </c>
+      <c r="I940" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="941" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A941" t="s">
+        <v>18</v>
+      </c>
+      <c r="B941">
+        <v>100</v>
+      </c>
+      <c r="C941" t="s">
+        <v>14</v>
+      </c>
+      <c r="D941">
+        <v>112</v>
+      </c>
+      <c r="E941" t="s">
+        <v>67</v>
+      </c>
+      <c r="F941">
+        <v>17832</v>
+      </c>
+      <c r="G941" t="s">
+        <v>55</v>
+      </c>
+      <c r="H941" t="s">
+        <v>14</v>
+      </c>
+      <c r="I941" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="942" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A942" t="s">
+        <v>23</v>
+      </c>
+      <c r="B942">
+        <v>104</v>
+      </c>
+      <c r="C942" t="s">
+        <v>26</v>
+      </c>
+      <c r="D942">
+        <v>113</v>
+      </c>
+      <c r="E942" t="s">
+        <v>50</v>
+      </c>
+      <c r="F942">
+        <v>17832</v>
+      </c>
+      <c r="G942" t="s">
+        <v>48</v>
+      </c>
+      <c r="H942" t="s">
+        <v>26</v>
+      </c>
+      <c r="I942" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="943" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A943" t="s">
+        <v>9</v>
+      </c>
+      <c r="B943">
+        <v>74</v>
+      </c>
+      <c r="C943" t="s">
+        <v>12</v>
+      </c>
+      <c r="D943">
+        <v>98</v>
+      </c>
+      <c r="E943" t="s">
+        <v>67</v>
+      </c>
+      <c r="F943">
+        <v>17832</v>
+      </c>
+      <c r="G943" t="s">
+        <v>13</v>
+      </c>
+      <c r="H943" t="s">
+        <v>12</v>
+      </c>
+      <c r="I943" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="944" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A944" t="s">
+        <v>17</v>
+      </c>
+      <c r="B944">
+        <v>99</v>
+      </c>
+      <c r="C944" t="s">
+        <v>30</v>
+      </c>
+      <c r="D944">
+        <v>92</v>
+      </c>
+      <c r="E944" t="s">
+        <v>67</v>
+      </c>
+      <c r="F944">
+        <v>17832</v>
+      </c>
+      <c r="G944" t="s">
+        <v>31</v>
+      </c>
+      <c r="H944" t="s">
+        <v>17</v>
+      </c>
+      <c r="I944" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="945" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A945" t="s">
+        <v>21</v>
+      </c>
+      <c r="B945">
+        <v>100</v>
+      </c>
+      <c r="C945" t="s">
+        <v>32</v>
+      </c>
+      <c r="D945">
+        <v>107</v>
+      </c>
+      <c r="E945" t="s">
+        <v>67</v>
+      </c>
+      <c r="F945">
+        <v>17832</v>
+      </c>
+      <c r="G945" t="s">
+        <v>59</v>
+      </c>
+      <c r="H945" t="s">
+        <v>32</v>
+      </c>
+      <c r="I945" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="946" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A946" t="s">
+        <v>45</v>
+      </c>
+      <c r="B946">
+        <v>122</v>
+      </c>
+      <c r="C946" t="s">
+        <v>2</v>
+      </c>
+      <c r="D946">
+        <v>123</v>
+      </c>
+      <c r="E946" t="s">
+        <v>67</v>
+      </c>
+      <c r="F946">
+        <v>17832</v>
+      </c>
+      <c r="G946" t="s">
+        <v>43</v>
+      </c>
+      <c r="H946" t="s">
+        <v>2</v>
+      </c>
+      <c r="I946" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="947" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A947" t="s">
+        <v>8</v>
+      </c>
+      <c r="B947">
+        <v>123</v>
+      </c>
+      <c r="C947" t="s">
+        <v>41</v>
+      </c>
+      <c r="D947">
+        <v>107</v>
+      </c>
+      <c r="E947" t="s">
+        <v>67</v>
+      </c>
+      <c r="F947">
+        <v>17832</v>
+      </c>
+      <c r="G947" t="s">
+        <v>52</v>
+      </c>
+      <c r="H947" t="s">
+        <v>8</v>
+      </c>
+      <c r="I947" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
